--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -5,28 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4706462E-C0EF-4ED8-9BA4-B7FA94B0FC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="fuel_groups" sheetId="2" r:id="rId2"/>
+    <sheet name="variability" sheetId="3" r:id="rId2"/>
+    <sheet name="fuel_groups" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Scenario</t>
   </si>
@@ -103,13 +115,88 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>HHL</t>
+  </si>
+  <si>
+    <t>LLL</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t>LLH</t>
+  </si>
+  <si>
+    <t>LML</t>
+  </si>
+  <si>
+    <t>LMM</t>
+  </si>
+  <si>
+    <t>LMH</t>
+  </si>
+  <si>
+    <t>LHL</t>
+  </si>
+  <si>
+    <t>LHM</t>
+  </si>
+  <si>
+    <t>LHH</t>
+  </si>
+  <si>
+    <t>MLL</t>
+  </si>
+  <si>
+    <t>MLM</t>
+  </si>
+  <si>
+    <t>MLH</t>
+  </si>
+  <si>
+    <t>MML</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>MMH</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>MHM</t>
+  </si>
+  <si>
+    <t>MHH</t>
+  </si>
+  <si>
+    <t>HLL</t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>HLH</t>
+  </si>
+  <si>
+    <t>HML</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>HMH</t>
+  </si>
+  <si>
+    <t>HHM</t>
+  </si>
+  <si>
+    <t>Variability</t>
   </si>
 </sst>
 </file>
@@ -436,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,22 +563,26 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <f>1/27</f>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -499,22 +590,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <f t="shared" ref="C3:C28" si="0">1/27</f>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.2</v>
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
       </c>
       <c r="F3">
-        <v>1.2</v>
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
       </c>
       <c r="G3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,22 +616,648 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
       </c>
       <c r="G4">
-        <v>0.8</v>
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F8">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G8">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F9">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F10">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G10">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G11">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G13">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G17">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G19">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F20">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G20">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F21">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F22">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G22">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F26">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G26">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F27">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F28">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G28">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -547,6 +1267,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD9A92-DA97-41D6-8F28-B69416D7D7DA}">
   <dimension ref="A1:C19"/>
   <sheetViews>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B140A80A-F467-4544-B012-A40522F0427C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="variability" sheetId="3" r:id="rId2"/>
-    <sheet name="fuel_groups" sheetId="2" r:id="rId3"/>
+    <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
+    <sheet name="three_scenarios" sheetId="4" r:id="rId2"/>
+    <sheet name="variability" sheetId="3" r:id="rId3"/>
+    <sheet name="fuel_groups" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Scenario</t>
   </si>
@@ -525,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,6 +1268,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59180BE-5606-40D4-8893-B1262E6F265B}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F2">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G2">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F4">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G4">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1292,7 +1414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD9A92-DA97-41D6-8F28-B69416D7D7DA}">
   <dimension ref="A1:C19"/>
   <sheetViews>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B140A80A-F467-4544-B012-A40522F0427C}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC39236-4E1A-45D9-9E39-672DCF0B5F2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
     <sheet name="three_scenarios" sheetId="4" r:id="rId2"/>
-    <sheet name="variability" sheetId="3" r:id="rId3"/>
-    <sheet name="fuel_groups" sheetId="2" r:id="rId4"/>
+    <sheet name="three_scenarios_new" sheetId="5" r:id="rId3"/>
+    <sheet name="variability" sheetId="3" r:id="rId4"/>
+    <sheet name="fuel_groups" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>Scenario</t>
   </si>
@@ -527,7 +528,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59180BE-5606-40D4-8893-B1262E6F265B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,11 +1390,135 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC66704-B169-4E35-BB26-DD18B5F91B22}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F2">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G2">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F3">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G3">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G4">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD9A92-DA97-41D6-8F28-B69416D7D7DA}">
   <dimension ref="A1:C19"/>
   <sheetViews>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC39236-4E1A-45D9-9E39-672DCF0B5F2A}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C051907-7D79-4754-947D-51C72DDC914F}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
@@ -576,15 +576,15 @@
       </c>
       <c r="E2">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,11 +603,11 @@
       </c>
       <c r="E3">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -629,15 +629,15 @@
       </c>
       <c r="E4">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G4">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -656,14 +656,14 @@
       </c>
       <c r="E5">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
       </c>
       <c r="E6">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -707,14 +707,14 @@
       </c>
       <c r="E7">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,15 +733,15 @@
       </c>
       <c r="E8">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F8">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G8">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,11 +760,11 @@
       </c>
       <c r="E9">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F9">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -786,15 +786,15 @@
       </c>
       <c r="E10">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F10">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G10">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,11 +816,11 @@
       </c>
       <c r="F11">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G11">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
       </c>
       <c r="F12">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -867,11 +867,11 @@
       </c>
       <c r="F13">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G13">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
       </c>
       <c r="G14">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
       </c>
       <c r="G16">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,11 +967,11 @@
       </c>
       <c r="F17">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G17">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
       </c>
       <c r="F18">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1018,11 +1018,11 @@
       </c>
       <c r="F19">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G19">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,15 +1041,15 @@
       </c>
       <c r="E20">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F20">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G20">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="E21">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F21">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1094,15 +1094,15 @@
       </c>
       <c r="E22">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F22">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G22">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="E23">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E24">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E25">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,15 +1198,15 @@
       </c>
       <c r="E26">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F26">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G26">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,11 +1225,11 @@
       </c>
       <c r="E27">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F27">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1251,15 +1251,15 @@
       </c>
       <c r="E28">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F28">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G28">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -1321,15 +1321,15 @@
       </c>
       <c r="E2">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1372,15 +1372,15 @@
       </c>
       <c r="E4">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F4">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G4">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC66704-B169-4E35-BB26-DD18B5F91B22}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,15 +1442,15 @@
       </c>
       <c r="E2">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F2">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,15 +1469,15 @@
       </c>
       <c r="E3">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G3">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,15 +1496,15 @@
       </c>
       <c r="E4">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
         <f>1-variability!$A$2</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G4">
         <f>1+variability!$A$2</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C051907-7D79-4754-947D-51C72DDC914F}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{669A2532-3B65-4B76-900E-628149A01521}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="23400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
@@ -576,15 +576,15 @@
       </c>
       <c r="E2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,11 +603,11 @@
       </c>
       <c r="E3">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F3">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -629,15 +629,15 @@
       </c>
       <c r="E4">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -656,14 +656,14 @@
       </c>
       <c r="E5">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
       </c>
       <c r="E6">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -707,14 +707,14 @@
       </c>
       <c r="E7">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,15 +733,15 @@
       </c>
       <c r="E8">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F8">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G8">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,11 +760,11 @@
       </c>
       <c r="E9">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F9">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -786,15 +786,15 @@
       </c>
       <c r="E10">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F10">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G10">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,11 +816,11 @@
       </c>
       <c r="F11">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G11">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
       </c>
       <c r="F12">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -867,11 +867,11 @@
       </c>
       <c r="F13">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G13">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
       </c>
       <c r="G14">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
       </c>
       <c r="G16">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,11 +967,11 @@
       </c>
       <c r="F17">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G17">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
       </c>
       <c r="F18">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1018,11 +1018,11 @@
       </c>
       <c r="F19">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G19">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,15 +1041,15 @@
       </c>
       <c r="E20">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F20">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G20">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="E21">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F21">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1094,15 +1094,15 @@
       </c>
       <c r="E22">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F22">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G22">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="E23">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E24">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E25">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,15 +1198,15 @@
       </c>
       <c r="E26">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F26">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G26">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,11 +1225,11 @@
       </c>
       <c r="E27">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F27">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1251,15 +1251,15 @@
       </c>
       <c r="E28">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F28">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G28">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -1321,15 +1321,15 @@
       </c>
       <c r="E2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1372,15 +1372,15 @@
       </c>
       <c r="E4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -1442,15 +1442,15 @@
       </c>
       <c r="E2">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,15 +1469,15 @@
       </c>
       <c r="E3">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F3">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G3">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,15 +1496,15 @@
       </c>
       <c r="E4">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{0E937912-0639-43B2-8D44-CEDD8138C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C051907-7D79-4754-947D-51C72DDC914F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839377C9-0A2E-48A5-9586-63818B40FC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
     <sheet name="three_scenarios" sheetId="4" r:id="rId2"/>
-    <sheet name="three_scenarios_new" sheetId="5" r:id="rId3"/>
-    <sheet name="variability" sheetId="3" r:id="rId4"/>
-    <sheet name="fuel_groups" sheetId="2" r:id="rId5"/>
+    <sheet name="three_scenarios_new" sheetId="6" r:id="rId3"/>
+    <sheet name="three_scenarios_with_maturity" sheetId="5" r:id="rId4"/>
+    <sheet name="variability" sheetId="3" r:id="rId5"/>
+    <sheet name="fuel_groups" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>Scenario</t>
   </si>
@@ -199,6 +200,48 @@
   </si>
   <si>
     <t>Variability</t>
+  </si>
+  <si>
+    <t>Cost_Established</t>
+  </si>
+  <si>
+    <t>Cost_Battery</t>
+  </si>
+  <si>
+    <t>Cost_Hydrogen</t>
+  </si>
+  <si>
+    <t>Cost_Biofuel</t>
+  </si>
+  <si>
+    <t>Maturity_Established</t>
+  </si>
+  <si>
+    <t>Maturity_Battery</t>
+  </si>
+  <si>
+    <t>Maturity_Hydrogen</t>
+  </si>
+  <si>
+    <t>Maturity_Biofuel</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>Idea: choose from one of three maturity "profiles": a base path, a slow path, and a fast path</t>
+  </si>
+  <si>
+    <t>We should construct a table with these maturity paths</t>
+  </si>
+  <si>
+    <t>To do: base maturity paths on diffusion model</t>
   </si>
 </sst>
 </file>
@@ -576,15 +619,15 @@
       </c>
       <c r="E2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,11 +646,11 @@
       </c>
       <c r="E3">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F3">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -629,15 +672,15 @@
       </c>
       <c r="E4">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -656,14 +699,14 @@
       </c>
       <c r="E5">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,7 +725,7 @@
       </c>
       <c r="E6">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -707,14 +750,14 @@
       </c>
       <c r="E7">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,15 +776,15 @@
       </c>
       <c r="E8">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F8">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G8">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,11 +803,11 @@
       </c>
       <c r="E9">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F9">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -786,15 +829,15 @@
       </c>
       <c r="E10">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F10">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G10">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,11 +859,11 @@
       </c>
       <c r="F11">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G11">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -842,7 +885,7 @@
       </c>
       <c r="F12">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -867,11 +910,11 @@
       </c>
       <c r="F13">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G13">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,7 +939,7 @@
       </c>
       <c r="G14">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,7 +988,7 @@
       </c>
       <c r="G16">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,11 +1010,11 @@
       </c>
       <c r="F17">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G17">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,7 +1036,7 @@
       </c>
       <c r="F18">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1018,11 +1061,11 @@
       </c>
       <c r="F19">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G19">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,15 +1084,15 @@
       </c>
       <c r="E20">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F20">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G20">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,11 +1111,11 @@
       </c>
       <c r="E21">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F21">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1094,15 +1137,15 @@
       </c>
       <c r="E22">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F22">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G22">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,14 +1164,14 @@
       </c>
       <c r="E23">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,7 +1190,7 @@
       </c>
       <c r="E24">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1172,14 +1215,14 @@
       </c>
       <c r="E25">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,15 +1241,15 @@
       </c>
       <c r="E26">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F26">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G26">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,11 +1268,11 @@
       </c>
       <c r="E27">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F27">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1251,15 +1294,15 @@
       </c>
       <c r="E28">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F28">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G28">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1316,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,15 +1364,15 @@
       </c>
       <c r="E2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1372,15 +1415,15 @@
       </c>
       <c r="E4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -1390,17 +1433,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC66704-B169-4E35-BB26-DD18B5F91B22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA40069-C8F8-4EBA-8FE0-2D8BCC5659EE}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,15 +1489,15 @@
       </c>
       <c r="E2">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,15 +1516,15 @@
       </c>
       <c r="E3">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F3">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G3">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,15 +1543,15 @@
       </c>
       <c r="E4">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
         <f>1-variability!$A$2</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G4">
         <f>1+variability!$A$2</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -1514,11 +1561,201 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC66704-B169-4E35-BB26-DD18B5F91B22}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F2">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G2">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F3">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G3">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G4">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1767,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1539,12 +1776,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD9A92-DA97-41D6-8F28-B69416D7D7DA}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839377C9-0A2E-48A5-9586-63818B40FC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9C4C2C-16B4-4594-A85E-155303F6E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
     <sheet name="three_scenarios" sheetId="4" r:id="rId2"/>
-    <sheet name="three_scenarios_new" sheetId="6" r:id="rId3"/>
-    <sheet name="three_scenarios_with_maturity" sheetId="5" r:id="rId4"/>
-    <sheet name="variability" sheetId="3" r:id="rId5"/>
-    <sheet name="fuel_groups" sheetId="2" r:id="rId6"/>
+    <sheet name="three_scenarios_new" sheetId="5" r:id="rId3"/>
+    <sheet name="variability" sheetId="3" r:id="rId4"/>
+    <sheet name="fuel_groups" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="65">
   <si>
     <t>Scenario</t>
   </si>
@@ -235,13 +234,7 @@
     <t>slow</t>
   </si>
   <si>
-    <t>Idea: choose from one of three maturity "profiles": a base path, a slow path, and a fast path</t>
-  </si>
-  <si>
-    <t>We should construct a table with these maturity paths</t>
-  </si>
-  <si>
-    <t>To do: base maturity paths on diffusion model</t>
+    <t xml:space="preserve">base </t>
   </si>
 </sst>
 </file>
@@ -568,19 +561,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,19 +591,31 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -629,8 +641,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -655,8 +679,20 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -682,8 +718,20 @@
         <f>1+variability!$A$2</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -708,8 +756,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -733,8 +793,20 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -759,8 +831,20 @@
         <f>1+variability!$A$2</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -786,8 +870,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -812,8 +908,20 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -839,8 +947,20 @@
         <f>1+variability!$A$2</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -865,8 +985,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -890,8 +1022,20 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -916,8 +1060,20 @@
         <f>1+variability!$A$2</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -941,8 +1097,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -965,8 +1133,20 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -990,8 +1170,20 @@
         <f>1+variability!$A$2</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1016,8 +1208,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1041,8 +1245,20 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1067,8 +1283,20 @@
         <f>1+variability!$A$2</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1094,8 +1322,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1120,8 +1360,20 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1147,8 +1399,20 @@
         <f>1+variability!$A$2</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1173,8 +1437,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1198,8 +1474,20 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1224,8 +1512,20 @@
         <f>1+variability!$A$2</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1251,8 +1551,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1277,8 +1589,20 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1303,6 +1627,18 @@
       <c r="G28">
         <f>1+variability!$A$2</f>
         <v>1.25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1313,19 +1649,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59180BE-5606-40D4-8893-B1262E6F265B}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,19 +1679,31 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1374,8 +1729,20 @@
         <f>1-variability!$A$2</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1398,8 +1765,20 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1424,6 +1803,18 @@
       <c r="G4">
         <f>1+variability!$A$2</f>
         <v>1.25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1433,139 +1824,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA40069-C8F8-4EBA-8FE0-2D8BCC5659EE}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>1+variability!$A$2</f>
-        <v>1.25</v>
-      </c>
-      <c r="F2">
-        <f>1-variability!$A$2</f>
-        <v>0.75</v>
-      </c>
-      <c r="G2">
-        <f>1-variability!$A$2</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f>1-variability!$A$2</f>
-        <v>0.75</v>
-      </c>
-      <c r="F3">
-        <f>1+variability!$A$2</f>
-        <v>1.25</v>
-      </c>
-      <c r="G3">
-        <f>1-variability!$A$2</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f>1-variability!$A$2</f>
-        <v>0.75</v>
-      </c>
-      <c r="F4">
-        <f>1-variability!$A$2</f>
-        <v>0.75</v>
-      </c>
-      <c r="G4">
-        <f>1+variability!$A$2</f>
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC66704-B169-4E35-BB26-DD18B5F91B22}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M1" sqref="M1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1846,7 @@
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,11 +1880,8 @@
       <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1659,11 +1919,8 @@
       <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1701,11 +1958,8 @@
       <c r="K3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1750,7 +2004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1776,7 +2030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD9A92-DA97-41D6-8F28-B69416D7D7DA}">
   <dimension ref="A1:C19"/>
   <sheetViews>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9C4C2C-16B4-4594-A85E-155303F6E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{4D9C4C2C-16B4-4594-A85E-155303F6E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA372F63-05CF-4CE1-AAA2-41A88672A5A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
     <sheet name="three_scenarios" sheetId="4" r:id="rId2"/>
     <sheet name="three_scenarios_new" sheetId="5" r:id="rId3"/>
-    <sheet name="variability" sheetId="3" r:id="rId4"/>
-    <sheet name="fuel_groups" sheetId="2" r:id="rId5"/>
+    <sheet name="EV_scenario" sheetId="6" r:id="rId4"/>
+    <sheet name="variability" sheetId="3" r:id="rId5"/>
+    <sheet name="fuel_groups" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="65">
   <si>
     <t>Scenario</t>
   </si>
@@ -564,7 +565,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A15" sqref="A15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1829,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,6 +2006,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A01C7-0A25-459C-A739-C90077084666}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2030,7 +2116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD9A92-DA97-41D6-8F28-B69416D7D7DA}">
   <dimension ref="A1:C19"/>
   <sheetViews>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{4D9C4C2C-16B4-4594-A85E-155303F6E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA372F63-05CF-4CE1-AAA2-41A88672A5A1}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{4D9C4C2C-16B4-4594-A85E-155303F6E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E81627-4313-41CD-A6A7-C024FEA29589}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="66">
   <si>
     <t>Scenario</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">base </t>
+  </si>
+  <si>
+    <t>always include "MMM" -&gt; needed for calculation of VSS</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59180BE-5606-40D4-8893-B1262E6F265B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC66704-B169-4E35-BB26-DD18B5F91B22}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1850,7 @@
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1890,8 +1893,8 @@
         <v>45</v>
       </c>
       <c r="C2">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1921,7 +1924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1929,8 +1932,8 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1960,7 +1963,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1968,8 +1971,8 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1997,6 +2000,45 @@
       </c>
       <c r="K4" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{4D9C4C2C-16B4-4594-A85E-155303F6E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E81627-4313-41CD-A6A7-C024FEA29589}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79EE936-1B99-4011-8F1A-FA86D3C0BA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
@@ -118,87 +118,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>HHH</t>
-  </si>
-  <si>
-    <t>HHL</t>
-  </si>
-  <si>
-    <t>LLL</t>
-  </si>
-  <si>
-    <t>LLM</t>
-  </si>
-  <si>
-    <t>LLH</t>
-  </si>
-  <si>
-    <t>LML</t>
-  </si>
-  <si>
-    <t>LMM</t>
-  </si>
-  <si>
-    <t>LMH</t>
-  </si>
-  <si>
-    <t>LHL</t>
-  </si>
-  <si>
-    <t>LHM</t>
-  </si>
-  <si>
-    <t>LHH</t>
-  </si>
-  <si>
-    <t>MLL</t>
-  </si>
-  <si>
-    <t>MLM</t>
-  </si>
-  <si>
-    <t>MLH</t>
-  </si>
-  <si>
-    <t>MML</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>MMH</t>
-  </si>
-  <si>
-    <t>MHL</t>
-  </si>
-  <si>
-    <t>MHM</t>
-  </si>
-  <si>
-    <t>MHH</t>
-  </si>
-  <si>
-    <t>HLL</t>
-  </si>
-  <si>
-    <t>HLM</t>
-  </si>
-  <si>
-    <t>HLH</t>
-  </si>
-  <si>
-    <t>HML</t>
-  </si>
-  <si>
-    <t>HMM</t>
-  </si>
-  <si>
-    <t>HMH</t>
-  </si>
-  <si>
-    <t>HHM</t>
-  </si>
-  <si>
     <t>Variability</t>
   </si>
   <si>
@@ -238,7 +157,88 @@
     <t xml:space="preserve">base </t>
   </si>
   <si>
-    <t>always include "MMM" -&gt; needed for calculation of VSS</t>
+    <t>POO</t>
+  </si>
+  <si>
+    <t>OPO</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>always include "BBB" -&gt; needed for calculation of VSS</t>
+  </si>
+  <si>
+    <t>OOO</t>
+  </si>
+  <si>
+    <t>OOB</t>
+  </si>
+  <si>
+    <t>OBO</t>
+  </si>
+  <si>
+    <t>OBB</t>
+  </si>
+  <si>
+    <t>OBP</t>
+  </si>
+  <si>
+    <t>OPB</t>
+  </si>
+  <si>
+    <t>OPP</t>
+  </si>
+  <si>
+    <t>BOO</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>BOP</t>
+  </si>
+  <si>
+    <t>BBO</t>
+  </si>
+  <si>
+    <t>BBP</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>BPB</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>POB</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>PBO</t>
+  </si>
+  <si>
+    <t>PBB</t>
+  </si>
+  <si>
+    <t>PBP</t>
+  </si>
+  <si>
+    <t>PPO</t>
+  </si>
+  <si>
+    <t>PPB</t>
+  </si>
+  <si>
+    <t>PPP</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:K15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,28 +595,28 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <f>1/27</f>
@@ -646,16 +646,16 @@
         <v>0.75</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C28" si="0">1/27</f>
@@ -684,16 +684,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -723,16 +723,16 @@
         <v>1.25</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -761,16 +761,16 @@
         <v>0.75</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -798,16 +798,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -836,16 +836,16 @@
         <v>1.25</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -875,16 +875,16 @@
         <v>0.75</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -913,16 +913,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -952,16 +952,16 @@
         <v>1.25</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -990,16 +990,16 @@
         <v>0.75</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1065,16 +1065,16 @@
         <v>1.25</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1102,16 +1102,16 @@
         <v>0.75</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1138,16 +1138,16 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1155,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1175,16 +1175,16 @@
         <v>1.25</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1213,16 +1213,16 @@
         <v>0.75</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1250,16 +1250,16 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1288,16 +1288,16 @@
         <v>1.25</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -1327,16 +1327,16 @@
         <v>0.75</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1365,16 +1365,16 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1404,16 +1404,16 @@
         <v>1.25</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -1442,16 +1442,16 @@
         <v>0.75</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -1479,16 +1479,16 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -1517,16 +1517,16 @@
         <v>1.25</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -1556,16 +1556,16 @@
         <v>0.75</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -1633,16 +1633,16 @@
         <v>1.25</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1655,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59180BE-5606-40D4-8893-B1262E6F265B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,28 +1683,28 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <f>1/3</f>
@@ -1734,16 +1734,16 @@
         <v>0.75</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <f>1/3</f>
@@ -1770,16 +1770,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <f>1/3</f>
@@ -1809,16 +1809,16 @@
         <v>1.25</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1831,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC66704-B169-4E35-BB26-DD18B5F91B22}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,28 +1861,28 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <f>1/4</f>
@@ -1912,16 +1912,16 @@
         <v>0.75</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <f>1/4</f>
@@ -1951,16 +1951,16 @@
         <v>0.75</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <f>1/4</f>
@@ -1990,16 +1990,16 @@
         <v>1.25</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <f>1/4</f>
@@ -2026,19 +2026,19 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2051,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A01C7-0A25-459C-A739-C90077084666}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,28 +2068,28 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2115,20 +2115,21 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2144,7 +2145,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79EE936-1B99-4011-8F1A-FA86D3C0BA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0055DE63-B91E-4D5A-836C-689BD6F502BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
-    <sheet name="three_scenarios" sheetId="4" r:id="rId2"/>
-    <sheet name="three_scenarios_new" sheetId="5" r:id="rId3"/>
-    <sheet name="EV_scenario" sheetId="6" r:id="rId4"/>
-    <sheet name="variability" sheetId="3" r:id="rId5"/>
-    <sheet name="fuel_groups" sheetId="2" r:id="rId6"/>
+    <sheet name="nine_scenarios" sheetId="7" r:id="rId2"/>
+    <sheet name="three_scenarios" sheetId="4" r:id="rId3"/>
+    <sheet name="three_scenarios_new" sheetId="5" r:id="rId4"/>
+    <sheet name="EV_scenario" sheetId="6" r:id="rId5"/>
+    <sheet name="variability" sheetId="3" r:id="rId6"/>
+    <sheet name="fuel_groups" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="66">
   <si>
     <t>Scenario</t>
   </si>
@@ -568,7 +569,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,6 +1653,405 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8424FF-558A-4FF4-BD92-4595B5988325}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F3">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G3">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G4">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F5">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G5">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F6">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G6">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F7">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G7">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F8">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G8">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F9">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G9">
+        <f>1-variability!$A$2</f>
+        <v>0.75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F10">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G10">
+        <f>1+variability!$A$2</f>
+        <v>1.25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59180BE-5606-40D4-8893-B1262E6F265B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1827,7 +2227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC66704-B169-4E35-BB26-DD18B5F91B22}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -2047,12 +2447,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A01C7-0A25-459C-A739-C90077084666}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2159,7 +2559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD9A92-DA97-41D6-8F28-B69416D7D7DA}">
   <dimension ref="A1:C19"/>
   <sheetViews>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0055DE63-B91E-4D5A-836C-689BD6F502BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91EB177-2576-411F-894F-3F98FD906274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="three_scenarios_new" sheetId="5" r:id="rId4"/>
     <sheet name="EV_scenario" sheetId="6" r:id="rId5"/>
     <sheet name="variability" sheetId="3" r:id="rId6"/>
-    <sheet name="fuel_groups" sheetId="2" r:id="rId7"/>
+    <sheet name="fuel_groups (backup)" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="65">
   <si>
     <t>Scenario</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Battery</t>
-  </si>
-  <si>
-    <t>Biofuel</t>
   </si>
   <si>
     <t>Probability</t>
@@ -569,7 +566,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K28"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,34 +587,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -625,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <f>1/27</f>
@@ -647,16 +644,16 @@
         <v>0.75</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -664,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C28" si="0">1/27</f>
@@ -685,16 +682,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -702,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -724,16 +721,16 @@
         <v>1.25</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -741,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -762,16 +759,16 @@
         <v>0.75</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -779,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -799,16 +796,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -816,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -837,16 +834,16 @@
         <v>1.25</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -854,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -876,16 +873,16 @@
         <v>0.75</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -893,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -914,16 +911,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -931,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -953,16 +950,16 @@
         <v>1.25</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -970,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -991,16 +988,16 @@
         <v>0.75</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1008,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1028,16 +1025,16 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1045,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1066,16 +1063,16 @@
         <v>1.25</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1083,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1103,16 +1100,16 @@
         <v>0.75</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1120,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1139,16 +1136,16 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1156,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1176,16 +1173,16 @@
         <v>1.25</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1193,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1214,16 +1211,16 @@
         <v>0.75</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1231,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1251,16 +1248,16 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1268,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1289,16 +1286,16 @@
         <v>1.25</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1306,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -1328,16 +1325,16 @@
         <v>0.75</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1345,7 +1342,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1366,16 +1363,16 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1383,7 +1380,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1405,16 +1402,16 @@
         <v>1.25</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1422,7 +1419,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -1443,16 +1440,16 @@
         <v>0.75</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1460,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -1480,16 +1477,16 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1497,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -1518,16 +1515,16 @@
         <v>1.25</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1535,7 +1532,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -1557,16 +1554,16 @@
         <v>0.75</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1574,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -1595,16 +1592,16 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1612,7 +1609,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -1634,16 +1631,16 @@
         <v>1.25</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1656,45 +1653,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8424FF-558A-4FF4-BD92-4595B5988325}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1702,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <f>1/9</f>
@@ -1721,16 +1728,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1738,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C10" si="0">1/9</f>
@@ -1760,16 +1767,16 @@
         <v>0.75</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1777,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -1799,16 +1806,16 @@
         <v>1.25</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1816,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -1838,16 +1845,16 @@
         <v>0.75</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1855,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1877,16 +1884,16 @@
         <v>1.25</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1894,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1916,16 +1923,16 @@
         <v>0.75</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1933,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1955,16 +1962,16 @@
         <v>1.25</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1972,7 +1979,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1994,16 +2001,16 @@
         <v>0.75</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2011,7 +2018,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -2033,16 +2040,16 @@
         <v>1.25</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2077,34 +2084,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2112,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <f>1/3</f>
@@ -2134,16 +2141,16 @@
         <v>0.75</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2151,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <f>1/3</f>
@@ -2170,16 +2177,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2187,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <f>1/3</f>
@@ -2209,16 +2216,16 @@
         <v>1.25</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2255,34 +2262,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2290,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <f>1/4</f>
@@ -2312,16 +2319,16 @@
         <v>0.75</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2329,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <f>1/4</f>
@@ -2351,16 +2358,16 @@
         <v>0.75</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2368,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <f>1/4</f>
@@ -2390,16 +2397,16 @@
         <v>1.25</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2407,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <f>1/4</f>
@@ -2426,19 +2433,19 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2462,34 +2469,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2497,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2515,16 +2522,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2552,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2563,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD9A92-DA97-41D6-8F28-B69416D7D7DA}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,9 +2631,6 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2635,9 +2639,6 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2701,9 +2702,6 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2712,9 +2710,6 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2774,12 +2769,6 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91EB177-2576-411F-894F-3F98FD906274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEF6F76-2FD5-477E-8B82-55156576AC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scenarios_base" sheetId="1" r:id="rId1"/>
-    <sheet name="nine_scenarios" sheetId="7" r:id="rId2"/>
-    <sheet name="three_scenarios" sheetId="4" r:id="rId3"/>
-    <sheet name="three_scenarios_new" sheetId="5" r:id="rId4"/>
-    <sheet name="EV_scenario" sheetId="6" r:id="rId5"/>
-    <sheet name="variability" sheetId="3" r:id="rId6"/>
-    <sheet name="fuel_groups (backup)" sheetId="2" r:id="rId7"/>
+    <sheet name="scenarios_new" sheetId="8" r:id="rId1"/>
+    <sheet name="variability" sheetId="3" r:id="rId2"/>
+    <sheet name="scenarios_base" sheetId="1" r:id="rId3"/>
+    <sheet name="nine_scenarios" sheetId="7" r:id="rId4"/>
+    <sheet name="three_scenarios" sheetId="4" r:id="rId5"/>
+    <sheet name="three_scenarios_new" sheetId="5" r:id="rId6"/>
+    <sheet name="EV_scenario" sheetId="6" r:id="rId7"/>
+    <sheet name="fuel_groups (backup)" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="65">
   <si>
     <t>Scenario</t>
   </si>
@@ -243,6 +244,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,9 +284,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,11 +567,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365BFB6-903F-41E7-AC5F-D6EA4CC87EB7}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <f>1/27</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C28" si="0">1/27</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +2294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8424FF-558A-4FF4-BD92-4595B5988325}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -2058,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59180BE-5606-40D4-8893-B1262E6F265B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -2234,7 +2879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC66704-B169-4E35-BB26-DD18B5F91B22}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -2454,7 +3099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A01C7-0A25-459C-A739-C90077084666}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2540,37 +3185,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD9A92-DA97-41D6-8F28-B69416D7D7DA}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{8D69D8F2-0B20-4D44-9C3D-616F8CD40F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D10F8558-BC68-43B2-911B-0063DB8B0AA5}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{8D69D8F2-0B20-4D44-9C3D-616F8CD40F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DA3D72C-EF0F-44E2-B722-B1528B862E4F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>Break bulk</t>
   </si>
   <si>
-    <t>Neon bulk</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -107,12 +104,6 @@
   </si>
   <si>
     <t>Sea</t>
-  </si>
-  <si>
-    <t>Heavy fuel oil</t>
-  </si>
-  <si>
-    <t>Maritime gas oil</t>
   </si>
   <si>
     <t>Ammonia</t>
@@ -212,6 +203,15 @@
   </si>
   <si>
     <t>Cost Factor</t>
+  </si>
+  <si>
+    <t>Neo bulk</t>
+  </si>
+  <si>
+    <t>MGO</t>
+  </si>
+  <si>
+    <t>HFO</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C62B08C-45D2-4F7F-A1A1-F485128869A7}">
   <dimension ref="A1:G496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="I340" sqref="I340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -917,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -977,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1000,7 +1000,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -1023,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1046,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -1161,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -1184,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -1207,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -1216,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1230,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -1239,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1253,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -1262,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1276,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -1299,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -1322,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -1345,7 +1345,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -1368,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -1391,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -1414,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -1437,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -1460,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -1483,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -1506,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -1529,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -1552,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -1561,7 +1561,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1575,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -1584,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -1598,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -1607,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -1906,7 +1906,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -1929,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -1952,7 +1952,7 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
@@ -1966,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>2034</v>
@@ -1989,7 +1989,7 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>2034</v>
@@ -2012,7 +2012,7 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64">
         <v>2034</v>
@@ -2035,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65">
         <v>2034</v>
@@ -2058,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66">
         <v>2034</v>
@@ -2081,7 +2081,7 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67">
         <v>2034</v>
@@ -2104,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68">
         <v>2034</v>
@@ -2127,7 +2127,7 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69">
         <v>2034</v>
@@ -2150,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>2034</v>
@@ -2173,7 +2173,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71">
         <v>2034</v>
@@ -2196,7 +2196,7 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72">
         <v>2034</v>
@@ -2219,7 +2219,7 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>2034</v>
@@ -2242,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <v>2034</v>
@@ -2251,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2265,7 +2265,7 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>2034</v>
@@ -2274,7 +2274,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -2288,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76">
         <v>2034</v>
@@ -2297,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -2311,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>2034</v>
@@ -2334,7 +2334,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78">
         <v>2034</v>
@@ -2357,7 +2357,7 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>2034</v>
@@ -2380,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80">
         <v>2034</v>
@@ -2403,7 +2403,7 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81">
         <v>2034</v>
@@ -2426,7 +2426,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C82">
         <v>2034</v>
@@ -2449,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C83">
         <v>2034</v>
@@ -2472,7 +2472,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C84">
         <v>2034</v>
@@ -2495,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85">
         <v>2034</v>
@@ -2518,7 +2518,7 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86">
         <v>2034</v>
@@ -2541,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87">
         <v>2034</v>
@@ -2564,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88">
         <v>2034</v>
@@ -2587,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C89">
         <v>2034</v>
@@ -2596,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90">
         <v>2034</v>
@@ -2619,7 +2619,7 @@
         <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -2633,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C91">
         <v>2034</v>
@@ -2642,7 +2642,7 @@
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
@@ -2941,7 +2941,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -2964,7 +2964,7 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
@@ -2987,7 +2987,7 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F106" t="s">
         <v>12</v>
@@ -3001,7 +3001,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107">
         <v>2050</v>
@@ -3024,7 +3024,7 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108">
         <v>2050</v>
@@ -3047,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109">
         <v>2050</v>
@@ -3070,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110">
         <v>2050</v>
@@ -3093,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C111">
         <v>2050</v>
@@ -3116,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112">
         <v>2050</v>
@@ -3139,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C113">
         <v>2050</v>
@@ -3162,7 +3162,7 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C114">
         <v>2050</v>
@@ -3185,7 +3185,7 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115">
         <v>2050</v>
@@ -3208,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C116">
         <v>2050</v>
@@ -3231,7 +3231,7 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C117">
         <v>2050</v>
@@ -3254,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118">
         <v>2050</v>
@@ -3277,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119">
         <v>2050</v>
@@ -3286,7 +3286,7 @@
         <v>8</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -3300,7 +3300,7 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120">
         <v>2050</v>
@@ -3309,7 +3309,7 @@
         <v>8</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
@@ -3323,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121">
         <v>2050</v>
@@ -3332,7 +3332,7 @@
         <v>8</v>
       </c>
       <c r="E121" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
@@ -3346,7 +3346,7 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C122">
         <v>2050</v>
@@ -3369,7 +3369,7 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C123">
         <v>2050</v>
@@ -3392,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C124">
         <v>2050</v>
@@ -3415,7 +3415,7 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C125">
         <v>2050</v>
@@ -3438,7 +3438,7 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C126">
         <v>2050</v>
@@ -3461,7 +3461,7 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C127">
         <v>2050</v>
@@ -3484,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C128">
         <v>2050</v>
@@ -3507,7 +3507,7 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C129">
         <v>2050</v>
@@ -3530,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C130">
         <v>2050</v>
@@ -3553,7 +3553,7 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C131">
         <v>2050</v>
@@ -3576,7 +3576,7 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C132">
         <v>2050</v>
@@ -3599,7 +3599,7 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C133">
         <v>2050</v>
@@ -3622,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C134">
         <v>2050</v>
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -3645,7 +3645,7 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C135">
         <v>2050</v>
@@ -3654,7 +3654,7 @@
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F135" t="s">
         <v>11</v>
@@ -3668,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C136">
         <v>2050</v>
@@ -3677,7 +3677,7 @@
         <v>8</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F136" t="s">
         <v>12</v>
@@ -3697,7 +3697,7 @@
         <v>2023</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
@@ -3720,13 +3720,13 @@
         <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>2023</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
         <v>9</v>
@@ -3766,7 +3766,7 @@
         <v>2023</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
@@ -3789,7 +3789,7 @@
         <v>2023</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
         <v>13</v>
@@ -3812,13 +3812,13 @@
         <v>2023</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E142" t="s">
         <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>2023</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -3858,7 +3858,7 @@
         <v>2023</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E144" t="s">
         <v>13</v>
@@ -3881,7 +3881,7 @@
         <v>2023</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -3904,13 +3904,13 @@
         <v>2023</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>2023</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -3950,7 +3950,7 @@
         <v>2023</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -3973,7 +3973,7 @@
         <v>2023</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
@@ -3996,13 +3996,13 @@
         <v>2023</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         <v>2023</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
@@ -4042,7 +4042,7 @@
         <v>2023</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -4065,10 +4065,10 @@
         <v>2023</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E153" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F153" t="s">
         <v>10</v>
@@ -4088,13 +4088,13 @@
         <v>2023</v>
       </c>
       <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" t="s">
+        <v>54</v>
+      </c>
+      <c r="F154" t="s">
         <v>19</v>
-      </c>
-      <c r="E154" t="s">
-        <v>16</v>
-      </c>
-      <c r="F154" t="s">
-        <v>20</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -4111,10 +4111,10 @@
         <v>2023</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E155" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F155" t="s">
         <v>11</v>
@@ -4134,10 +4134,10 @@
         <v>2023</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F156" t="s">
         <v>12</v>
@@ -4151,13 +4151,13 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157">
         <v>2023</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
@@ -4174,19 +4174,19 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158">
         <v>2023</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G158">
         <v>0.96014293690574515</v>
@@ -4197,13 +4197,13 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159">
         <v>2023</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
@@ -4220,13 +4220,13 @@
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160">
         <v>2023</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
@@ -4243,13 +4243,13 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C161">
         <v>2023</v>
       </c>
       <c r="D161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E161" t="s">
         <v>13</v>
@@ -4266,19 +4266,19 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C162">
         <v>2023</v>
       </c>
       <c r="D162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E162" t="s">
         <v>13</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G162">
         <v>0.96049984849507219</v>
@@ -4289,13 +4289,13 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C163">
         <v>2023</v>
       </c>
       <c r="D163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E163" t="s">
         <v>13</v>
@@ -4312,13 +4312,13 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C164">
         <v>2023</v>
       </c>
       <c r="D164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -4335,13 +4335,13 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165">
         <v>2023</v>
       </c>
       <c r="D165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -4358,19 +4358,19 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166">
         <v>2023</v>
       </c>
       <c r="D166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G166">
         <v>0.95768850490833746</v>
@@ -4381,13 +4381,13 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C167">
         <v>2023</v>
       </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
@@ -4404,13 +4404,13 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C168">
         <v>2023</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
@@ -4427,13 +4427,13 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C169">
         <v>2023</v>
       </c>
       <c r="D169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E169" t="s">
         <v>15</v>
@@ -4450,19 +4450,19 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C170">
         <v>2023</v>
       </c>
       <c r="D170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E170" t="s">
         <v>15</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G170">
         <v>0.97394250880909916</v>
@@ -4473,13 +4473,13 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C171">
         <v>2023</v>
       </c>
       <c r="D171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E171" t="s">
         <v>15</v>
@@ -4496,13 +4496,13 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C172">
         <v>2023</v>
       </c>
       <c r="D172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E172" t="s">
         <v>15</v>
@@ -4519,16 +4519,16 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173">
         <v>2023</v>
       </c>
       <c r="D173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -4542,19 +4542,19 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174">
         <v>2023</v>
       </c>
       <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" t="s">
+        <v>54</v>
+      </c>
+      <c r="F174" t="s">
         <v>19</v>
-      </c>
-      <c r="E174" t="s">
-        <v>16</v>
-      </c>
-      <c r="F174" t="s">
-        <v>20</v>
       </c>
       <c r="G174">
         <v>0.95960677458661592</v>
@@ -4565,16 +4565,16 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175">
         <v>2023</v>
       </c>
       <c r="D175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E175" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
@@ -4588,16 +4588,16 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176">
         <v>2023</v>
       </c>
       <c r="D176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E176" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F176" t="s">
         <v>12</v>
@@ -4611,13 +4611,13 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C177">
         <v>2023</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E177" t="s">
         <v>9</v>
@@ -4634,19 +4634,19 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C178">
         <v>2023</v>
       </c>
       <c r="D178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G178">
         <v>1.0717735979905896</v>
@@ -4657,13 +4657,13 @@
         <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C179">
         <v>2023</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E179" t="s">
         <v>9</v>
@@ -4680,13 +4680,13 @@
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C180">
         <v>2023</v>
       </c>
       <c r="D180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
@@ -4703,13 +4703,13 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C181">
         <v>2023</v>
       </c>
       <c r="D181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E181" t="s">
         <v>13</v>
@@ -4726,19 +4726,19 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C182">
         <v>2023</v>
       </c>
       <c r="D182" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E182" t="s">
         <v>13</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G182">
         <v>1.0711308805663289</v>
@@ -4749,13 +4749,13 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C183">
         <v>2023</v>
       </c>
       <c r="D183" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E183" t="s">
         <v>13</v>
@@ -4772,13 +4772,13 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C184">
         <v>2023</v>
       </c>
       <c r="D184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E184" t="s">
         <v>13</v>
@@ -4795,13 +4795,13 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C185">
         <v>2023</v>
       </c>
       <c r="D185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
@@ -4818,19 +4818,19 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C186">
         <v>2023</v>
       </c>
       <c r="D186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G186">
         <v>1.0761934774749502</v>
@@ -4841,13 +4841,13 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C187">
         <v>2023</v>
       </c>
       <c r="D187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -4864,13 +4864,13 @@
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C188">
         <v>2023</v>
       </c>
       <c r="D188" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
@@ -4887,13 +4887,13 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C189">
         <v>2023</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E189" t="s">
         <v>15</v>
@@ -4910,19 +4910,19 @@
         <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C190">
         <v>2023</v>
       </c>
       <c r="D190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G190">
         <v>1.0469236755592413</v>
@@ -4933,13 +4933,13 @@
         <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C191">
         <v>2023</v>
       </c>
       <c r="D191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
@@ -4956,13 +4956,13 @@
         <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C192">
         <v>2023</v>
       </c>
       <c r="D192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -4979,16 +4979,16 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C193">
         <v>2023</v>
       </c>
       <c r="D193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F193" t="s">
         <v>10</v>
@@ -5002,19 +5002,19 @@
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C194">
         <v>2023</v>
       </c>
       <c r="D194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194" t="s">
+        <v>54</v>
+      </c>
+      <c r="F194" t="s">
         <v>19</v>
-      </c>
-      <c r="E194" t="s">
-        <v>16</v>
-      </c>
-      <c r="F194" t="s">
-        <v>20</v>
       </c>
       <c r="G194">
         <v>1.0727391056262097</v>
@@ -5025,16 +5025,16 @@
         <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C195">
         <v>2023</v>
       </c>
       <c r="D195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E195" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F195" t="s">
         <v>11</v>
@@ -5048,16 +5048,16 @@
         <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C196">
         <v>2023</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E196" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F196" t="s">
         <v>12</v>
@@ -5077,7 +5077,7 @@
         <v>2034</v>
       </c>
       <c r="D197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
@@ -5100,13 +5100,13 @@
         <v>2034</v>
       </c>
       <c r="D198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -5123,7 +5123,7 @@
         <v>2034</v>
       </c>
       <c r="D199" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
@@ -5146,7 +5146,7 @@
         <v>2034</v>
       </c>
       <c r="D200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
@@ -5169,7 +5169,7 @@
         <v>2034</v>
       </c>
       <c r="D201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E201" t="s">
         <v>13</v>
@@ -5192,13 +5192,13 @@
         <v>2034</v>
       </c>
       <c r="D202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E202" t="s">
         <v>13</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -5215,7 +5215,7 @@
         <v>2034</v>
       </c>
       <c r="D203" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E203" t="s">
         <v>13</v>
@@ -5238,7 +5238,7 @@
         <v>2034</v>
       </c>
       <c r="D204" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E204" t="s">
         <v>13</v>
@@ -5261,7 +5261,7 @@
         <v>2034</v>
       </c>
       <c r="D205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
@@ -5284,13 +5284,13 @@
         <v>2034</v>
       </c>
       <c r="D206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -5307,7 +5307,7 @@
         <v>2034</v>
       </c>
       <c r="D207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -5330,7 +5330,7 @@
         <v>2034</v>
       </c>
       <c r="D208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
@@ -5353,7 +5353,7 @@
         <v>2034</v>
       </c>
       <c r="D209" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
@@ -5376,13 +5376,13 @@
         <v>2034</v>
       </c>
       <c r="D210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
       </c>
       <c r="F210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -5399,7 +5399,7 @@
         <v>2034</v>
       </c>
       <c r="D211" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E211" t="s">
         <v>15</v>
@@ -5422,7 +5422,7 @@
         <v>2034</v>
       </c>
       <c r="D212" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E212" t="s">
         <v>15</v>
@@ -5445,10 +5445,10 @@
         <v>2034</v>
       </c>
       <c r="D213" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E213" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
@@ -5468,13 +5468,13 @@
         <v>2034</v>
       </c>
       <c r="D214" t="s">
+        <v>18</v>
+      </c>
+      <c r="E214" t="s">
+        <v>54</v>
+      </c>
+      <c r="F214" t="s">
         <v>19</v>
-      </c>
-      <c r="E214" t="s">
-        <v>16</v>
-      </c>
-      <c r="F214" t="s">
-        <v>20</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -5491,10 +5491,10 @@
         <v>2034</v>
       </c>
       <c r="D215" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E215" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F215" t="s">
         <v>11</v>
@@ -5514,10 +5514,10 @@
         <v>2034</v>
       </c>
       <c r="D216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E216" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F216" t="s">
         <v>12</v>
@@ -5531,13 +5531,13 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C217">
         <v>2034</v>
       </c>
       <c r="D217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E217" t="s">
         <v>9</v>
@@ -5554,19 +5554,19 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218">
         <v>2034</v>
       </c>
       <c r="D218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E218" t="s">
         <v>9</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G218">
         <v>0.97423568867649013</v>
@@ -5577,13 +5577,13 @@
         <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C219">
         <v>2034</v>
       </c>
       <c r="D219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E219" t="s">
         <v>9</v>
@@ -5600,13 +5600,13 @@
         <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C220">
         <v>2034</v>
       </c>
       <c r="D220" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E220" t="s">
         <v>9</v>
@@ -5623,13 +5623,13 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C221">
         <v>2034</v>
       </c>
       <c r="D221" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E221" t="s">
         <v>13</v>
@@ -5646,19 +5646,19 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C222">
         <v>2034</v>
       </c>
       <c r="D222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E222" t="s">
         <v>13</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G222">
         <v>0.9744698611704895</v>
@@ -5669,13 +5669,13 @@
         <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C223">
         <v>2034</v>
       </c>
       <c r="D223" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E223" t="s">
         <v>13</v>
@@ -5692,13 +5692,13 @@
         <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C224">
         <v>2034</v>
       </c>
       <c r="D224" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E224" t="s">
         <v>13</v>
@@ -5715,13 +5715,13 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C225">
         <v>2034</v>
       </c>
       <c r="D225" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
@@ -5738,19 +5738,19 @@
         <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226">
         <v>2034</v>
       </c>
       <c r="D226" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G226">
         <v>0.97262359661256736</v>
@@ -5761,13 +5761,13 @@
         <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C227">
         <v>2034</v>
       </c>
       <c r="D227" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
@@ -5784,13 +5784,13 @@
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C228">
         <v>2034</v>
       </c>
       <c r="D228" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -5807,13 +5807,13 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C229">
         <v>2034</v>
       </c>
       <c r="D229" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -5830,19 +5830,19 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C230">
         <v>2034</v>
       </c>
       <c r="D230" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E230" t="s">
         <v>15</v>
       </c>
       <c r="F230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G230">
         <v>0.98324374092732647</v>
@@ -5853,13 +5853,13 @@
         <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C231">
         <v>2034</v>
       </c>
       <c r="D231" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E231" t="s">
         <v>15</v>
@@ -5876,13 +5876,13 @@
         <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232">
         <v>2034</v>
       </c>
       <c r="D232" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E232" t="s">
         <v>15</v>
@@ -5899,16 +5899,16 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C233">
         <v>2034</v>
       </c>
       <c r="D233" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
@@ -5922,19 +5922,19 @@
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C234">
         <v>2034</v>
       </c>
       <c r="D234" t="s">
+        <v>18</v>
+      </c>
+      <c r="E234" t="s">
+        <v>54</v>
+      </c>
+      <c r="F234" t="s">
         <v>19</v>
-      </c>
-      <c r="E234" t="s">
-        <v>16</v>
-      </c>
-      <c r="F234" t="s">
-        <v>20</v>
       </c>
       <c r="G234">
         <v>0.97388378910425344</v>
@@ -5945,16 +5945,16 @@
         <v>11</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C235">
         <v>2034</v>
       </c>
       <c r="D235" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E235" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F235" t="s">
         <v>11</v>
@@ -5968,16 +5968,16 @@
         <v>12</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C236">
         <v>2034</v>
       </c>
       <c r="D236" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E236" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F236" t="s">
         <v>12</v>
@@ -5991,13 +5991,13 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C237">
         <v>2034</v>
       </c>
       <c r="D237" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
@@ -6014,19 +6014,19 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C238">
         <v>2034</v>
       </c>
       <c r="D238" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G238">
         <v>1.0524003360256466</v>
@@ -6037,13 +6037,13 @@
         <v>11</v>
       </c>
       <c r="B239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C239">
         <v>2034</v>
       </c>
       <c r="D239" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E239" t="s">
         <v>9</v>
@@ -6060,13 +6060,13 @@
         <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C240">
         <v>2034</v>
       </c>
       <c r="D240" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
@@ -6083,13 +6083,13 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C241">
         <v>2034</v>
       </c>
       <c r="D241" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -6106,19 +6106,19 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C242">
         <v>2034</v>
       </c>
       <c r="D242" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E242" t="s">
         <v>13</v>
       </c>
       <c r="F242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G242">
         <v>1.051924068012136</v>
@@ -6129,13 +6129,13 @@
         <v>11</v>
       </c>
       <c r="B243" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C243">
         <v>2034</v>
       </c>
       <c r="D243" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E243" t="s">
         <v>13</v>
@@ -6152,13 +6152,13 @@
         <v>12</v>
       </c>
       <c r="B244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C244">
         <v>2034</v>
       </c>
       <c r="D244" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E244" t="s">
         <v>13</v>
@@ -6175,13 +6175,13 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C245">
         <v>2034</v>
       </c>
       <c r="D245" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E245" t="s">
         <v>14</v>
@@ -6198,19 +6198,19 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C246">
         <v>2034</v>
       </c>
       <c r="D246" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E246" t="s">
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G246">
         <v>1.0556790639059741</v>
@@ -6221,13 +6221,13 @@
         <v>11</v>
       </c>
       <c r="B247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C247">
         <v>2034</v>
       </c>
       <c r="D247" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E247" t="s">
         <v>14</v>
@@ -6244,13 +6244,13 @@
         <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C248">
         <v>2034</v>
       </c>
       <c r="D248" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E248" t="s">
         <v>14</v>
@@ -6267,13 +6267,13 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C249">
         <v>2034</v>
       </c>
       <c r="D249" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E249" t="s">
         <v>15</v>
@@ -6290,19 +6290,19 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C250">
         <v>2034</v>
       </c>
       <c r="D250" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
       </c>
       <c r="F250" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G250">
         <v>1.0340794518012084</v>
@@ -6313,13 +6313,13 @@
         <v>11</v>
       </c>
       <c r="B251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C251">
         <v>2034</v>
       </c>
       <c r="D251" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E251" t="s">
         <v>15</v>
@@ -6336,13 +6336,13 @@
         <v>12</v>
       </c>
       <c r="B252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C252">
         <v>2034</v>
       </c>
       <c r="D252" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E252" t="s">
         <v>15</v>
@@ -6359,16 +6359,16 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C253">
         <v>2034</v>
       </c>
       <c r="D253" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E253" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F253" t="s">
         <v>10</v>
@@ -6382,19 +6382,19 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C254">
         <v>2034</v>
       </c>
       <c r="D254" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254" t="s">
+        <v>54</v>
+      </c>
+      <c r="F254" t="s">
         <v>19</v>
-      </c>
-      <c r="E254" t="s">
-        <v>16</v>
-      </c>
-      <c r="F254" t="s">
-        <v>20</v>
       </c>
       <c r="G254">
         <v>1.0531160413903637</v>
@@ -6405,16 +6405,16 @@
         <v>11</v>
       </c>
       <c r="B255" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C255">
         <v>2034</v>
       </c>
       <c r="D255" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E255" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F255" t="s">
         <v>11</v>
@@ -6428,16 +6428,16 @@
         <v>12</v>
       </c>
       <c r="B256" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C256">
         <v>2034</v>
       </c>
       <c r="D256" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E256" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F256" t="s">
         <v>12</v>
@@ -6457,7 +6457,7 @@
         <v>2050</v>
       </c>
       <c r="D257" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E257" t="s">
         <v>9</v>
@@ -6480,13 +6480,13 @@
         <v>2050</v>
       </c>
       <c r="D258" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E258" t="s">
         <v>9</v>
       </c>
       <c r="F258" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -6503,7 +6503,7 @@
         <v>2050</v>
       </c>
       <c r="D259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E259" t="s">
         <v>9</v>
@@ -6526,7 +6526,7 @@
         <v>2050</v>
       </c>
       <c r="D260" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E260" t="s">
         <v>9</v>
@@ -6549,7 +6549,7 @@
         <v>2050</v>
       </c>
       <c r="D261" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E261" t="s">
         <v>13</v>
@@ -6572,13 +6572,13 @@
         <v>2050</v>
       </c>
       <c r="D262" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
       </c>
       <c r="F262" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -6595,7 +6595,7 @@
         <v>2050</v>
       </c>
       <c r="D263" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E263" t="s">
         <v>13</v>
@@ -6618,7 +6618,7 @@
         <v>2050</v>
       </c>
       <c r="D264" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E264" t="s">
         <v>13</v>
@@ -6641,7 +6641,7 @@
         <v>2050</v>
       </c>
       <c r="D265" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E265" t="s">
         <v>14</v>
@@ -6664,13 +6664,13 @@
         <v>2050</v>
       </c>
       <c r="D266" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E266" t="s">
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -6687,7 +6687,7 @@
         <v>2050</v>
       </c>
       <c r="D267" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
@@ -6710,7 +6710,7 @@
         <v>2050</v>
       </c>
       <c r="D268" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
@@ -6733,7 +6733,7 @@
         <v>2050</v>
       </c>
       <c r="D269" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E269" t="s">
         <v>15</v>
@@ -6756,13 +6756,13 @@
         <v>2050</v>
       </c>
       <c r="D270" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E270" t="s">
         <v>15</v>
       </c>
       <c r="F270" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -6779,7 +6779,7 @@
         <v>2050</v>
       </c>
       <c r="D271" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -6802,7 +6802,7 @@
         <v>2050</v>
       </c>
       <c r="D272" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E272" t="s">
         <v>15</v>
@@ -6825,10 +6825,10 @@
         <v>2050</v>
       </c>
       <c r="D273" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E273" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F273" t="s">
         <v>10</v>
@@ -6848,13 +6848,13 @@
         <v>2050</v>
       </c>
       <c r="D274" t="s">
+        <v>18</v>
+      </c>
+      <c r="E274" t="s">
+        <v>54</v>
+      </c>
+      <c r="F274" t="s">
         <v>19</v>
-      </c>
-      <c r="E274" t="s">
-        <v>16</v>
-      </c>
-      <c r="F274" t="s">
-        <v>20</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -6871,10 +6871,10 @@
         <v>2050</v>
       </c>
       <c r="D275" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E275" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F275" t="s">
         <v>11</v>
@@ -6894,10 +6894,10 @@
         <v>2050</v>
       </c>
       <c r="D276" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E276" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F276" t="s">
         <v>12</v>
@@ -6911,13 +6911,13 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C277">
         <v>2050</v>
       </c>
       <c r="D277" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E277" t="s">
         <v>9</v>
@@ -6934,19 +6934,19 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C278">
         <v>2050</v>
       </c>
       <c r="D278" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E278" t="s">
         <v>9</v>
       </c>
       <c r="F278" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G278">
         <v>0.9933140295808468</v>
@@ -6957,13 +6957,13 @@
         <v>11</v>
       </c>
       <c r="B279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C279">
         <v>2050</v>
       </c>
       <c r="D279" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E279" t="s">
         <v>9</v>
@@ -6980,13 +6980,13 @@
         <v>12</v>
       </c>
       <c r="B280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C280">
         <v>2050</v>
       </c>
       <c r="D280" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E280" t="s">
         <v>9</v>
@@ -7003,13 +7003,13 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C281">
         <v>2050</v>
       </c>
       <c r="D281" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E281" t="s">
         <v>13</v>
@@ -7026,19 +7026,19 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C282">
         <v>2050</v>
       </c>
       <c r="D282" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E282" t="s">
         <v>13</v>
       </c>
       <c r="F282" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G282">
         <v>0.99337620707835217</v>
@@ -7049,13 +7049,13 @@
         <v>11</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C283">
         <v>2050</v>
       </c>
       <c r="D283" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E283" t="s">
         <v>13</v>
@@ -7072,13 +7072,13 @@
         <v>12</v>
       </c>
       <c r="B284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C284">
         <v>2050</v>
       </c>
       <c r="D284" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E284" t="s">
         <v>13</v>
@@ -7095,13 +7095,13 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C285">
         <v>2050</v>
       </c>
       <c r="D285" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E285" t="s">
         <v>14</v>
@@ -7118,19 +7118,19 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C286">
         <v>2050</v>
       </c>
       <c r="D286" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E286" t="s">
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G286">
         <v>0.99288526808640964</v>
@@ -7141,13 +7141,13 @@
         <v>11</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C287">
         <v>2050</v>
       </c>
       <c r="D287" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E287" t="s">
         <v>14</v>
@@ -7164,13 +7164,13 @@
         <v>12</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C288">
         <v>2050</v>
       </c>
       <c r="D288" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E288" t="s">
         <v>14</v>
@@ -7187,13 +7187,13 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C289">
         <v>2050</v>
       </c>
       <c r="D289" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E289" t="s">
         <v>15</v>
@@ -7210,19 +7210,19 @@
         <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C290">
         <v>2050</v>
       </c>
       <c r="D290" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E290" t="s">
         <v>15</v>
       </c>
       <c r="F290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G290">
         <v>0.99568694625202447</v>
@@ -7233,13 +7233,13 @@
         <v>11</v>
       </c>
       <c r="B291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C291">
         <v>2050</v>
       </c>
       <c r="D291" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E291" t="s">
         <v>15</v>
@@ -7256,13 +7256,13 @@
         <v>12</v>
       </c>
       <c r="B292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C292">
         <v>2050</v>
       </c>
       <c r="D292" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E292" t="s">
         <v>15</v>
@@ -7279,16 +7279,16 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C293">
         <v>2050</v>
       </c>
       <c r="D293" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E293" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F293" t="s">
         <v>10</v>
@@ -7302,19 +7302,19 @@
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C294">
         <v>2050</v>
       </c>
       <c r="D294" t="s">
+        <v>18</v>
+      </c>
+      <c r="E294" t="s">
+        <v>54</v>
+      </c>
+      <c r="F294" t="s">
         <v>19</v>
-      </c>
-      <c r="E294" t="s">
-        <v>16</v>
-      </c>
-      <c r="F294" t="s">
-        <v>20</v>
       </c>
       <c r="G294">
         <v>0.99322054343801247</v>
@@ -7325,16 +7325,16 @@
         <v>11</v>
       </c>
       <c r="B295" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C295">
         <v>2050</v>
       </c>
       <c r="D295" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E295" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F295" t="s">
         <v>11</v>
@@ -7348,16 +7348,16 @@
         <v>12</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C296">
         <v>2050</v>
       </c>
       <c r="D296" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E296" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F296" t="s">
         <v>12</v>
@@ -7371,13 +7371,13 @@
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C297">
         <v>2050</v>
       </c>
       <c r="D297" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E297" t="s">
         <v>9</v>
@@ -7394,19 +7394,19 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C298">
         <v>2050</v>
       </c>
       <c r="D298" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E298" t="s">
         <v>9</v>
       </c>
       <c r="F298" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G298">
         <v>1.0262266576830907</v>
@@ -7417,13 +7417,13 @@
         <v>11</v>
       </c>
       <c r="B299" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C299">
         <v>2050</v>
       </c>
       <c r="D299" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E299" t="s">
         <v>9</v>
@@ -7440,13 +7440,13 @@
         <v>12</v>
       </c>
       <c r="B300" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C300">
         <v>2050</v>
       </c>
       <c r="D300" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E300" t="s">
         <v>9</v>
@@ -7463,13 +7463,13 @@
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C301">
         <v>2050</v>
       </c>
       <c r="D301" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E301" t="s">
         <v>13</v>
@@ -7486,19 +7486,19 @@
         <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C302">
         <v>2050</v>
       </c>
       <c r="D302" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E302" t="s">
         <v>13</v>
       </c>
       <c r="F302" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G302">
         <v>1.0259827577193701</v>
@@ -7509,13 +7509,13 @@
         <v>11</v>
       </c>
       <c r="B303" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C303">
         <v>2050</v>
       </c>
       <c r="D303" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E303" t="s">
         <v>13</v>
@@ -7532,13 +7532,13 @@
         <v>12</v>
       </c>
       <c r="B304" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C304">
         <v>2050</v>
       </c>
       <c r="D304" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E304" t="s">
         <v>13</v>
@@ -7555,13 +7555,13 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C305">
         <v>2050</v>
       </c>
       <c r="D305" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E305" t="s">
         <v>14</v>
@@ -7578,19 +7578,19 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C306">
         <v>2050</v>
       </c>
       <c r="D306" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E306" t="s">
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G306">
         <v>1.0279085348433716</v>
@@ -7601,13 +7601,13 @@
         <v>11</v>
       </c>
       <c r="B307" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C307">
         <v>2050</v>
       </c>
       <c r="D307" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
@@ -7624,13 +7624,13 @@
         <v>12</v>
       </c>
       <c r="B308" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C308">
         <v>2050</v>
       </c>
       <c r="D308" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E308" t="s">
         <v>14</v>
@@ -7647,13 +7647,13 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C309">
         <v>2050</v>
       </c>
       <c r="D309" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E309" t="s">
         <v>15</v>
@@ -7670,19 +7670,19 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C310">
         <v>2050</v>
       </c>
       <c r="D310" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E310" t="s">
         <v>15</v>
       </c>
       <c r="F310" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G310">
         <v>1.0169185588815763</v>
@@ -7693,13 +7693,13 @@
         <v>11</v>
       </c>
       <c r="B311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C311">
         <v>2050</v>
       </c>
       <c r="D311" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E311" t="s">
         <v>15</v>
@@ -7716,13 +7716,13 @@
         <v>12</v>
       </c>
       <c r="B312" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C312">
         <v>2050</v>
       </c>
       <c r="D312" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E312" t="s">
         <v>15</v>
@@ -7739,16 +7739,16 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C313">
         <v>2050</v>
       </c>
       <c r="D313" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E313" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F313" t="s">
         <v>10</v>
@@ -7762,19 +7762,19 @@
         <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C314">
         <v>2050</v>
       </c>
       <c r="D314" t="s">
+        <v>18</v>
+      </c>
+      <c r="E314" t="s">
+        <v>54</v>
+      </c>
+      <c r="F314" t="s">
         <v>19</v>
-      </c>
-      <c r="E314" t="s">
-        <v>16</v>
-      </c>
-      <c r="F314" t="s">
-        <v>20</v>
       </c>
       <c r="G314">
         <v>1.0265933702038645</v>
@@ -7785,16 +7785,16 @@
         <v>11</v>
       </c>
       <c r="B315" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C315">
         <v>2050</v>
       </c>
       <c r="D315" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E315" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F315" t="s">
         <v>11</v>
@@ -7808,16 +7808,16 @@
         <v>12</v>
       </c>
       <c r="B316" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C316">
         <v>2050</v>
       </c>
       <c r="D316" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E316" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F316" t="s">
         <v>12</v>
@@ -7837,13 +7837,13 @@
         <v>2023</v>
       </c>
       <c r="D317" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E317" t="s">
         <v>9</v>
       </c>
       <c r="F317" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -7860,13 +7860,13 @@
         <v>2023</v>
       </c>
       <c r="D318" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E318" t="s">
         <v>9</v>
       </c>
       <c r="F318" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G318">
         <v>1</v>
@@ -7883,7 +7883,7 @@
         <v>2023</v>
       </c>
       <c r="D319" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E319" t="s">
         <v>9</v>
@@ -7906,13 +7906,13 @@
         <v>2023</v>
       </c>
       <c r="D320" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E320" t="s">
         <v>9</v>
       </c>
       <c r="F320" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -7929,13 +7929,13 @@
         <v>2023</v>
       </c>
       <c r="D321" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E321" t="s">
         <v>9</v>
       </c>
       <c r="F321" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G321">
         <v>1</v>
@@ -7952,13 +7952,13 @@
         <v>2023</v>
       </c>
       <c r="D322" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E322" t="s">
         <v>14</v>
       </c>
       <c r="F322" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G322">
         <v>1</v>
@@ -7975,13 +7975,13 @@
         <v>2023</v>
       </c>
       <c r="D323" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E323" t="s">
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G323">
         <v>1</v>
@@ -7998,7 +7998,7 @@
         <v>2023</v>
       </c>
       <c r="D324" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E324" t="s">
         <v>14</v>
@@ -8021,13 +8021,13 @@
         <v>2023</v>
       </c>
       <c r="D325" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E325" t="s">
         <v>14</v>
       </c>
       <c r="F325" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G325">
         <v>1</v>
@@ -8044,13 +8044,13 @@
         <v>2023</v>
       </c>
       <c r="D326" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E326" t="s">
         <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G326">
         <v>1</v>
@@ -8067,13 +8067,13 @@
         <v>2023</v>
       </c>
       <c r="D327" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E327" t="s">
         <v>15</v>
       </c>
       <c r="F327" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -8090,13 +8090,13 @@
         <v>2023</v>
       </c>
       <c r="D328" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E328" t="s">
         <v>15</v>
       </c>
       <c r="F328" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G328">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>2023</v>
       </c>
       <c r="D329" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E329" t="s">
         <v>15</v>
@@ -8136,13 +8136,13 @@
         <v>2023</v>
       </c>
       <c r="D330" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E330" t="s">
         <v>15</v>
       </c>
       <c r="F330" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G330">
         <v>1</v>
@@ -8159,13 +8159,13 @@
         <v>2023</v>
       </c>
       <c r="D331" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E331" t="s">
         <v>15</v>
       </c>
       <c r="F331" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G331">
         <v>1</v>
@@ -8182,13 +8182,13 @@
         <v>2023</v>
       </c>
       <c r="D332" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E332" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F332" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -8205,13 +8205,13 @@
         <v>2023</v>
       </c>
       <c r="D333" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E333" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F333" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G333">
         <v>1</v>
@@ -8228,10 +8228,10 @@
         <v>2023</v>
       </c>
       <c r="D334" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E334" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F334" t="s">
         <v>12</v>
@@ -8251,13 +8251,13 @@
         <v>2023</v>
       </c>
       <c r="D335" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" t="s">
+        <v>54</v>
+      </c>
+      <c r="F335" t="s">
         <v>21</v>
-      </c>
-      <c r="E335" t="s">
-        <v>16</v>
-      </c>
-      <c r="F335" t="s">
-        <v>24</v>
       </c>
       <c r="G335">
         <v>1</v>
@@ -8274,13 +8274,13 @@
         <v>2023</v>
       </c>
       <c r="D336" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E336" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F336" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G336">
         <v>1</v>
@@ -8291,19 +8291,19 @@
         <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C337">
         <v>2023</v>
       </c>
       <c r="D337" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E337" t="s">
         <v>9</v>
       </c>
       <c r="F337" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G337">
         <v>1</v>
@@ -8314,19 +8314,19 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C338">
         <v>2023</v>
       </c>
       <c r="D338" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E338" t="s">
         <v>9</v>
       </c>
       <c r="F338" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G338">
         <v>1</v>
@@ -8337,13 +8337,13 @@
         <v>12</v>
       </c>
       <c r="B339" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C339">
         <v>2023</v>
       </c>
       <c r="D339" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E339" t="s">
         <v>9</v>
@@ -8360,19 +8360,19 @@
         <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C340">
         <v>2023</v>
       </c>
       <c r="D340" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E340" t="s">
         <v>9</v>
       </c>
       <c r="F340" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G340">
         <v>0.67324210450967781</v>
@@ -8383,19 +8383,19 @@
         <v>12</v>
       </c>
       <c r="B341" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C341">
         <v>2023</v>
       </c>
       <c r="D341" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E341" t="s">
         <v>9</v>
       </c>
       <c r="F341" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G341">
         <v>0.80003668435228525</v>
@@ -8406,19 +8406,19 @@
         <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C342">
         <v>2023</v>
       </c>
       <c r="D342" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E342" t="s">
         <v>14</v>
       </c>
       <c r="F342" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G342">
         <v>1</v>
@@ -8429,19 +8429,19 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C343">
         <v>2023</v>
       </c>
       <c r="D343" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E343" t="s">
         <v>14</v>
       </c>
       <c r="F343" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G343">
         <v>1</v>
@@ -8452,13 +8452,13 @@
         <v>12</v>
       </c>
       <c r="B344" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C344">
         <v>2023</v>
       </c>
       <c r="D344" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E344" t="s">
         <v>14</v>
@@ -8475,19 +8475,19 @@
         <v>12</v>
       </c>
       <c r="B345" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C345">
         <v>2023</v>
       </c>
       <c r="D345" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E345" t="s">
         <v>14</v>
       </c>
       <c r="F345" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G345">
         <v>0.68073063336429773</v>
@@ -8498,19 +8498,19 @@
         <v>12</v>
       </c>
       <c r="B346" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C346">
         <v>2023</v>
       </c>
       <c r="D346" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E346" t="s">
         <v>14</v>
       </c>
       <c r="F346" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G346">
         <v>0.80235644582049515</v>
@@ -8521,19 +8521,19 @@
         <v>6</v>
       </c>
       <c r="B347" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C347">
         <v>2023</v>
       </c>
       <c r="D347" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E347" t="s">
         <v>15</v>
       </c>
       <c r="F347" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G347">
         <v>1</v>
@@ -8544,19 +8544,19 @@
         <v>6</v>
       </c>
       <c r="B348" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C348">
         <v>2023</v>
       </c>
       <c r="D348" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E348" t="s">
         <v>15</v>
       </c>
       <c r="F348" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G348">
         <v>1</v>
@@ -8567,13 +8567,13 @@
         <v>12</v>
       </c>
       <c r="B349" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C349">
         <v>2023</v>
       </c>
       <c r="D349" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E349" t="s">
         <v>15</v>
@@ -8590,19 +8590,19 @@
         <v>12</v>
       </c>
       <c r="B350" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C350">
         <v>2023</v>
       </c>
       <c r="D350" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E350" t="s">
         <v>15</v>
       </c>
       <c r="F350" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G350">
         <v>0.67321056169172044</v>
@@ -8613,19 +8613,19 @@
         <v>12</v>
       </c>
       <c r="B351" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C351">
         <v>2023</v>
       </c>
       <c r="D351" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E351" t="s">
         <v>15</v>
       </c>
       <c r="F351" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G351">
         <v>0.80002769864417811</v>
@@ -8636,19 +8636,19 @@
         <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C352">
         <v>2023</v>
       </c>
       <c r="D352" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E352" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F352" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G352">
         <v>1</v>
@@ -8659,19 +8659,19 @@
         <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C353">
         <v>2023</v>
       </c>
       <c r="D353" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E353" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F353" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -8682,16 +8682,16 @@
         <v>12</v>
       </c>
       <c r="B354" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C354">
         <v>2023</v>
       </c>
       <c r="D354" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E354" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F354" t="s">
         <v>12</v>
@@ -8705,19 +8705,19 @@
         <v>12</v>
       </c>
       <c r="B355" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C355">
         <v>2023</v>
       </c>
       <c r="D355" t="s">
+        <v>20</v>
+      </c>
+      <c r="E355" t="s">
+        <v>54</v>
+      </c>
+      <c r="F355" t="s">
         <v>21</v>
-      </c>
-      <c r="E355" t="s">
-        <v>16</v>
-      </c>
-      <c r="F355" t="s">
-        <v>24</v>
       </c>
       <c r="G355">
         <v>0.6731685504254854</v>
@@ -8728,19 +8728,19 @@
         <v>12</v>
       </c>
       <c r="B356" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C356">
         <v>2023</v>
       </c>
       <c r="D356" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E356" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F356" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G356">
         <v>0.80001411975406778</v>
@@ -8751,19 +8751,19 @@
         <v>6</v>
       </c>
       <c r="B357" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C357">
         <v>2023</v>
       </c>
       <c r="D357" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E357" t="s">
         <v>9</v>
       </c>
       <c r="F357" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G357">
         <v>1</v>
@@ -8774,19 +8774,19 @@
         <v>6</v>
       </c>
       <c r="B358" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C358">
         <v>2023</v>
       </c>
       <c r="D358" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E358" t="s">
         <v>9</v>
       </c>
       <c r="F358" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G358">
         <v>1</v>
@@ -8797,13 +8797,13 @@
         <v>12</v>
       </c>
       <c r="B359" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C359">
         <v>2023</v>
       </c>
       <c r="D359" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E359" t="s">
         <v>9</v>
@@ -8820,19 +8820,19 @@
         <v>12</v>
       </c>
       <c r="B360" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C360">
         <v>2023</v>
       </c>
       <c r="D360" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E360" t="s">
         <v>9</v>
       </c>
       <c r="F360" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G360">
         <v>1.2012693101133951</v>
@@ -8843,19 +8843,19 @@
         <v>12</v>
       </c>
       <c r="B361" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C361">
         <v>2023</v>
       </c>
       <c r="D361" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E361" t="s">
         <v>9</v>
       </c>
       <c r="F361" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G361">
         <v>1.1231643705589269</v>
@@ -8866,19 +8866,19 @@
         <v>6</v>
       </c>
       <c r="B362" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C362">
         <v>2023</v>
       </c>
       <c r="D362" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E362" t="s">
         <v>14</v>
       </c>
       <c r="F362" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G362">
         <v>1</v>
@@ -8889,19 +8889,19 @@
         <v>6</v>
       </c>
       <c r="B363" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C363">
         <v>2023</v>
       </c>
       <c r="D363" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E363" t="s">
         <v>14</v>
       </c>
       <c r="F363" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G363">
         <v>1</v>
@@ -8912,13 +8912,13 @@
         <v>12</v>
       </c>
       <c r="B364" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C364">
         <v>2023</v>
       </c>
       <c r="D364" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E364" t="s">
         <v>14</v>
@@ -8935,19 +8935,19 @@
         <v>12</v>
       </c>
       <c r="B365" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C365">
         <v>2023</v>
       </c>
       <c r="D365" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E365" t="s">
         <v>14</v>
       </c>
       <c r="F365" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G365">
         <v>1.1966566869537554</v>
@@ -8958,19 +8958,19 @@
         <v>12</v>
       </c>
       <c r="B366" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C366">
         <v>2023</v>
       </c>
       <c r="D366" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E366" t="s">
         <v>14</v>
       </c>
       <c r="F366" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G366">
         <v>1.1217355486765062</v>
@@ -8981,19 +8981,19 @@
         <v>6</v>
       </c>
       <c r="B367" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C367">
         <v>2023</v>
       </c>
       <c r="D367" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E367" t="s">
         <v>15</v>
       </c>
       <c r="F367" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G367">
         <v>1</v>
@@ -9004,19 +9004,19 @@
         <v>6</v>
       </c>
       <c r="B368" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C368">
         <v>2023</v>
       </c>
       <c r="D368" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E368" t="s">
         <v>15</v>
       </c>
       <c r="F368" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G368">
         <v>1</v>
@@ -9027,13 +9027,13 @@
         <v>12</v>
       </c>
       <c r="B369" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C369">
         <v>2023</v>
       </c>
       <c r="D369" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E369" t="s">
         <v>15</v>
@@ -9050,19 +9050,19 @@
         <v>12</v>
       </c>
       <c r="B370" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C370">
         <v>2023</v>
       </c>
       <c r="D370" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E370" t="s">
         <v>15</v>
       </c>
       <c r="F370" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G370">
         <v>1.2012887391809</v>
@@ -9073,19 +9073,19 @@
         <v>12</v>
       </c>
       <c r="B371" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C371">
         <v>2023</v>
       </c>
       <c r="D371" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E371" t="s">
         <v>15</v>
       </c>
       <c r="F371" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G371">
         <v>1.1231699051695103</v>
@@ -9096,19 +9096,19 @@
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C372">
         <v>2023</v>
       </c>
       <c r="D372" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E372" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F372" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G372">
         <v>1</v>
@@ -9119,19 +9119,19 @@
         <v>6</v>
       </c>
       <c r="B373" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C373">
         <v>2023</v>
       </c>
       <c r="D373" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E373" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F373" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G373">
         <v>1</v>
@@ -9142,16 +9142,16 @@
         <v>12</v>
       </c>
       <c r="B374" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C374">
         <v>2023</v>
       </c>
       <c r="D374" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E374" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F374" t="s">
         <v>12</v>
@@ -9165,19 +9165,19 @@
         <v>12</v>
       </c>
       <c r="B375" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C375">
         <v>2023</v>
       </c>
       <c r="D375" t="s">
+        <v>20</v>
+      </c>
+      <c r="E375" t="s">
+        <v>54</v>
+      </c>
+      <c r="F375" t="s">
         <v>21</v>
-      </c>
-      <c r="E375" t="s">
-        <v>16</v>
-      </c>
-      <c r="F375" t="s">
-        <v>24</v>
       </c>
       <c r="G375">
         <v>1.2013146163783261</v>
@@ -9188,19 +9188,19 @@
         <v>12</v>
       </c>
       <c r="B376" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C376">
         <v>2023</v>
       </c>
       <c r="D376" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E376" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F376" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G376">
         <v>1.1231782688808634</v>
@@ -9217,13 +9217,13 @@
         <v>2034</v>
       </c>
       <c r="D377" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E377" t="s">
         <v>9</v>
       </c>
       <c r="F377" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G377">
         <v>1</v>
@@ -9240,13 +9240,13 @@
         <v>2034</v>
       </c>
       <c r="D378" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E378" t="s">
         <v>9</v>
       </c>
       <c r="F378" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G378">
         <v>1</v>
@@ -9263,7 +9263,7 @@
         <v>2034</v>
       </c>
       <c r="D379" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E379" t="s">
         <v>9</v>
@@ -9286,13 +9286,13 @@
         <v>2034</v>
       </c>
       <c r="D380" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E380" t="s">
         <v>9</v>
       </c>
       <c r="F380" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G380">
         <v>1</v>
@@ -9309,13 +9309,13 @@
         <v>2034</v>
       </c>
       <c r="D381" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E381" t="s">
         <v>9</v>
       </c>
       <c r="F381" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G381">
         <v>1</v>
@@ -9332,13 +9332,13 @@
         <v>2034</v>
       </c>
       <c r="D382" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E382" t="s">
         <v>14</v>
       </c>
       <c r="F382" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G382">
         <v>1</v>
@@ -9355,13 +9355,13 @@
         <v>2034</v>
       </c>
       <c r="D383" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E383" t="s">
         <v>14</v>
       </c>
       <c r="F383" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G383">
         <v>1</v>
@@ -9378,7 +9378,7 @@
         <v>2034</v>
       </c>
       <c r="D384" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E384" t="s">
         <v>14</v>
@@ -9401,13 +9401,13 @@
         <v>2034</v>
       </c>
       <c r="D385" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E385" t="s">
         <v>14</v>
       </c>
       <c r="F385" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G385">
         <v>1</v>
@@ -9424,13 +9424,13 @@
         <v>2034</v>
       </c>
       <c r="D386" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E386" t="s">
         <v>14</v>
       </c>
       <c r="F386" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G386">
         <v>1</v>
@@ -9447,13 +9447,13 @@
         <v>2034</v>
       </c>
       <c r="D387" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E387" t="s">
         <v>15</v>
       </c>
       <c r="F387" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G387">
         <v>1</v>
@@ -9470,13 +9470,13 @@
         <v>2034</v>
       </c>
       <c r="D388" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E388" t="s">
         <v>15</v>
       </c>
       <c r="F388" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G388">
         <v>1</v>
@@ -9493,7 +9493,7 @@
         <v>2034</v>
       </c>
       <c r="D389" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E389" t="s">
         <v>15</v>
@@ -9516,13 +9516,13 @@
         <v>2034</v>
       </c>
       <c r="D390" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E390" t="s">
         <v>15</v>
       </c>
       <c r="F390" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G390">
         <v>1</v>
@@ -9539,13 +9539,13 @@
         <v>2034</v>
       </c>
       <c r="D391" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E391" t="s">
         <v>15</v>
       </c>
       <c r="F391" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -9562,13 +9562,13 @@
         <v>2034</v>
       </c>
       <c r="D392" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E392" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F392" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G392">
         <v>1</v>
@@ -9585,13 +9585,13 @@
         <v>2034</v>
       </c>
       <c r="D393" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E393" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F393" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -9608,10 +9608,10 @@
         <v>2034</v>
       </c>
       <c r="D394" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E394" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F394" t="s">
         <v>12</v>
@@ -9631,13 +9631,13 @@
         <v>2034</v>
       </c>
       <c r="D395" t="s">
+        <v>20</v>
+      </c>
+      <c r="E395" t="s">
+        <v>54</v>
+      </c>
+      <c r="F395" t="s">
         <v>21</v>
-      </c>
-      <c r="E395" t="s">
-        <v>16</v>
-      </c>
-      <c r="F395" t="s">
-        <v>24</v>
       </c>
       <c r="G395">
         <v>1</v>
@@ -9654,13 +9654,13 @@
         <v>2034</v>
       </c>
       <c r="D396" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E396" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F396" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G396">
         <v>1</v>
@@ -9671,19 +9671,19 @@
         <v>6</v>
       </c>
       <c r="B397" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C397">
         <v>2034</v>
       </c>
       <c r="D397" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E397" t="s">
         <v>9</v>
       </c>
       <c r="F397" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G397">
         <v>1</v>
@@ -9694,19 +9694,19 @@
         <v>6</v>
       </c>
       <c r="B398" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C398">
         <v>2034</v>
       </c>
       <c r="D398" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E398" t="s">
         <v>9</v>
       </c>
       <c r="F398" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G398">
         <v>1</v>
@@ -9717,13 +9717,13 @@
         <v>12</v>
       </c>
       <c r="B399" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C399">
         <v>2034</v>
       </c>
       <c r="D399" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E399" t="s">
         <v>9</v>
@@ -9740,19 +9740,19 @@
         <v>12</v>
       </c>
       <c r="B400" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C400">
         <v>2034</v>
       </c>
       <c r="D400" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E400" t="s">
         <v>9</v>
       </c>
       <c r="F400" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G400">
         <v>0.70847223382539037</v>
@@ -9763,19 +9763,19 @@
         <v>12</v>
       </c>
       <c r="B401" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C401">
         <v>2034</v>
       </c>
       <c r="D401" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E401" t="s">
         <v>9</v>
       </c>
       <c r="F401" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G401">
         <v>0.80259008216087868</v>
@@ -9786,19 +9786,19 @@
         <v>6</v>
       </c>
       <c r="B402" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C402">
         <v>2034</v>
       </c>
       <c r="D402" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E402" t="s">
         <v>14</v>
       </c>
       <c r="F402" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G402">
         <v>1</v>
@@ -9809,19 +9809,19 @@
         <v>6</v>
       </c>
       <c r="B403" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C403">
         <v>2034</v>
       </c>
       <c r="D403" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E403" t="s">
         <v>14</v>
       </c>
       <c r="F403" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G403">
         <v>1</v>
@@ -9832,13 +9832,13 @@
         <v>12</v>
       </c>
       <c r="B404" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C404">
         <v>2034</v>
       </c>
       <c r="D404" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E404" t="s">
         <v>14</v>
@@ -9855,19 +9855,19 @@
         <v>12</v>
       </c>
       <c r="B405" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C405">
         <v>2034</v>
       </c>
       <c r="D405" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E405" t="s">
         <v>14</v>
       </c>
       <c r="F405" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G405">
         <v>0.71594765397302051</v>
@@ -9878,19 +9878,19 @@
         <v>12</v>
       </c>
       <c r="B406" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C406">
         <v>2034</v>
       </c>
       <c r="D406" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E406" t="s">
         <v>14</v>
       </c>
       <c r="F406" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G406">
         <v>0.80505768601457861</v>
@@ -9901,19 +9901,19 @@
         <v>6</v>
       </c>
       <c r="B407" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C407">
         <v>2034</v>
       </c>
       <c r="D407" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E407" t="s">
         <v>15</v>
       </c>
       <c r="F407" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G407">
         <v>1</v>
@@ -9924,19 +9924,19 @@
         <v>6</v>
       </c>
       <c r="B408" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C408">
         <v>2034</v>
       </c>
       <c r="D408" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E408" t="s">
         <v>15</v>
       </c>
       <c r="F408" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G408">
         <v>1</v>
@@ -9947,13 +9947,13 @@
         <v>12</v>
       </c>
       <c r="B409" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C409">
         <v>2034</v>
       </c>
       <c r="D409" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E409" t="s">
         <v>15</v>
@@ -9970,19 +9970,19 @@
         <v>12</v>
       </c>
       <c r="B410" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C410">
         <v>2034</v>
       </c>
       <c r="D410" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E410" t="s">
         <v>15</v>
       </c>
       <c r="F410" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G410">
         <v>0.70844071534577824</v>
@@ -9993,19 +9993,19 @@
         <v>12</v>
       </c>
       <c r="B411" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C411">
         <v>2034</v>
       </c>
       <c r="D411" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E411" t="s">
         <v>15</v>
       </c>
       <c r="F411" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G411">
         <v>0.80258051504301553</v>
@@ -10016,19 +10016,19 @@
         <v>6</v>
       </c>
       <c r="B412" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C412">
         <v>2034</v>
       </c>
       <c r="D412" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E412" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F412" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G412">
         <v>1</v>
@@ -10039,19 +10039,19 @@
         <v>6</v>
       </c>
       <c r="B413" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C413">
         <v>2034</v>
       </c>
       <c r="D413" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E413" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F413" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G413">
         <v>1</v>
@@ -10062,16 +10062,16 @@
         <v>12</v>
       </c>
       <c r="B414" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C414">
         <v>2034</v>
       </c>
       <c r="D414" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E414" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F414" t="s">
         <v>12</v>
@@ -10085,19 +10085,19 @@
         <v>12</v>
       </c>
       <c r="B415" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C415">
         <v>2034</v>
       </c>
       <c r="D415" t="s">
+        <v>20</v>
+      </c>
+      <c r="E415" t="s">
+        <v>54</v>
+      </c>
+      <c r="F415" t="s">
         <v>21</v>
-      </c>
-      <c r="E415" t="s">
-        <v>16</v>
-      </c>
-      <c r="F415" t="s">
-        <v>24</v>
       </c>
       <c r="G415">
         <v>0.70839859744298894</v>
@@ -10108,19 +10108,19 @@
         <v>12</v>
       </c>
       <c r="B416" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C416">
         <v>2034</v>
       </c>
       <c r="D416" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E416" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F416" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G416">
         <v>0.80256605741864606</v>
@@ -10131,19 +10131,19 @@
         <v>6</v>
       </c>
       <c r="B417" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C417">
         <v>2034</v>
       </c>
       <c r="D417" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E417" t="s">
         <v>9</v>
       </c>
       <c r="F417" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G417">
         <v>1</v>
@@ -10154,19 +10154,19 @@
         <v>6</v>
       </c>
       <c r="B418" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C418">
         <v>2034</v>
       </c>
       <c r="D418" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E418" t="s">
         <v>9</v>
       </c>
       <c r="F418" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G418">
         <v>1</v>
@@ -10177,13 +10177,13 @@
         <v>12</v>
       </c>
       <c r="B419" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C419">
         <v>2034</v>
       </c>
       <c r="D419" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E419" t="s">
         <v>9</v>
@@ -10200,19 +10200,19 @@
         <v>12</v>
       </c>
       <c r="B420" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C420">
         <v>2034</v>
       </c>
       <c r="D420" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E420" t="s">
         <v>9</v>
       </c>
       <c r="F420" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G420">
         <v>1.1800977874888723</v>
@@ -10223,19 +10223,19 @@
         <v>12</v>
       </c>
       <c r="B421" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C421">
         <v>2034</v>
       </c>
       <c r="D421" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E421" t="s">
         <v>9</v>
       </c>
       <c r="F421" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G421">
         <v>1.1217157034445346</v>
@@ -10246,19 +10246,19 @@
         <v>6</v>
       </c>
       <c r="B422" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C422">
         <v>2034</v>
       </c>
       <c r="D422" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E422" t="s">
         <v>14</v>
       </c>
       <c r="F422" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G422">
         <v>1</v>
@@ -10269,19 +10269,19 @@
         <v>6</v>
       </c>
       <c r="B423" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C423">
         <v>2034</v>
       </c>
       <c r="D423" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E423" t="s">
         <v>14</v>
       </c>
       <c r="F423" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G423">
         <v>1</v>
@@ -10292,13 +10292,13 @@
         <v>12</v>
       </c>
       <c r="B424" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C424">
         <v>2034</v>
       </c>
       <c r="D424" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E424" t="s">
         <v>14</v>
@@ -10315,19 +10315,19 @@
         <v>12</v>
       </c>
       <c r="B425" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C425">
         <v>2034</v>
       </c>
       <c r="D425" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E425" t="s">
         <v>14</v>
       </c>
       <c r="F425" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G425">
         <v>1.1754796797634777</v>
@@ -10338,19 +10338,19 @@
         <v>12</v>
       </c>
       <c r="B426" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C426">
         <v>2034</v>
       </c>
       <c r="D426" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E426" t="s">
         <v>14</v>
       </c>
       <c r="F426" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G426">
         <v>1.1201942695562923</v>
@@ -10361,19 +10361,19 @@
         <v>6</v>
       </c>
       <c r="B427" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C427">
         <v>2034</v>
       </c>
       <c r="D427" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E427" t="s">
         <v>15</v>
       </c>
       <c r="F427" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G427">
         <v>1</v>
@@ -10384,19 +10384,19 @@
         <v>6</v>
       </c>
       <c r="B428" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C428">
         <v>2034</v>
       </c>
       <c r="D428" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E428" t="s">
         <v>15</v>
       </c>
       <c r="F428" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G428">
         <v>1</v>
@@ -10407,13 +10407,13 @@
         <v>12</v>
       </c>
       <c r="B429" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C429">
         <v>2034</v>
       </c>
       <c r="D429" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E429" t="s">
         <v>15</v>
@@ -10430,19 +10430,19 @@
         <v>12</v>
       </c>
       <c r="B430" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C430">
         <v>2034</v>
       </c>
       <c r="D430" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E430" t="s">
         <v>15</v>
       </c>
       <c r="F430" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G430">
         <v>1.1801172587334734</v>
@@ -10453,19 +10453,19 @@
         <v>12</v>
       </c>
       <c r="B431" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C431">
         <v>2034</v>
       </c>
       <c r="D431" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E431" t="s">
         <v>15</v>
       </c>
       <c r="F431" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G431">
         <v>1.121721602177959</v>
@@ -10476,19 +10476,19 @@
         <v>6</v>
       </c>
       <c r="B432" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C432">
         <v>2034</v>
       </c>
       <c r="D432" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E432" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F432" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -10499,19 +10499,19 @@
         <v>6</v>
       </c>
       <c r="B433" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C433">
         <v>2034</v>
       </c>
       <c r="D433" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E433" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F433" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G433">
         <v>1</v>
@@ -10522,16 +10522,16 @@
         <v>12</v>
       </c>
       <c r="B434" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C434">
         <v>2034</v>
       </c>
       <c r="D434" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E434" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F434" t="s">
         <v>12</v>
@@ -10545,19 +10545,19 @@
         <v>12</v>
       </c>
       <c r="B435" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C435">
         <v>2034</v>
       </c>
       <c r="D435" t="s">
+        <v>20</v>
+      </c>
+      <c r="E435" t="s">
+        <v>54</v>
+      </c>
+      <c r="F435" t="s">
         <v>21</v>
-      </c>
-      <c r="E435" t="s">
-        <v>16</v>
-      </c>
-      <c r="F435" t="s">
-        <v>24</v>
       </c>
       <c r="G435">
         <v>1.1801432780084318</v>
@@ -10568,19 +10568,19 @@
         <v>12</v>
       </c>
       <c r="B436" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C436">
         <v>2034</v>
       </c>
       <c r="D436" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E436" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F436" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G436">
         <v>1.1217305162180411</v>
@@ -10597,13 +10597,13 @@
         <v>2050</v>
       </c>
       <c r="D437" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E437" t="s">
         <v>9</v>
       </c>
       <c r="F437" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G437">
         <v>1</v>
@@ -10620,13 +10620,13 @@
         <v>2050</v>
       </c>
       <c r="D438" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E438" t="s">
         <v>9</v>
       </c>
       <c r="F438" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G438">
         <v>1</v>
@@ -10643,7 +10643,7 @@
         <v>2050</v>
       </c>
       <c r="D439" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E439" t="s">
         <v>9</v>
@@ -10666,13 +10666,13 @@
         <v>2050</v>
       </c>
       <c r="D440" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E440" t="s">
         <v>9</v>
       </c>
       <c r="F440" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G440">
         <v>1</v>
@@ -10689,13 +10689,13 @@
         <v>2050</v>
       </c>
       <c r="D441" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E441" t="s">
         <v>9</v>
       </c>
       <c r="F441" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G441">
         <v>1</v>
@@ -10712,13 +10712,13 @@
         <v>2050</v>
       </c>
       <c r="D442" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E442" t="s">
         <v>14</v>
       </c>
       <c r="F442" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G442">
         <v>1</v>
@@ -10735,13 +10735,13 @@
         <v>2050</v>
       </c>
       <c r="D443" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E443" t="s">
         <v>14</v>
       </c>
       <c r="F443" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G443">
         <v>1</v>
@@ -10758,7 +10758,7 @@
         <v>2050</v>
       </c>
       <c r="D444" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E444" t="s">
         <v>14</v>
@@ -10781,13 +10781,13 @@
         <v>2050</v>
       </c>
       <c r="D445" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E445" t="s">
         <v>14</v>
       </c>
       <c r="F445" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G445">
         <v>1</v>
@@ -10804,13 +10804,13 @@
         <v>2050</v>
       </c>
       <c r="D446" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E446" t="s">
         <v>14</v>
       </c>
       <c r="F446" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G446">
         <v>1</v>
@@ -10827,13 +10827,13 @@
         <v>2050</v>
       </c>
       <c r="D447" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E447" t="s">
         <v>15</v>
       </c>
       <c r="F447" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G447">
         <v>1</v>
@@ -10850,13 +10850,13 @@
         <v>2050</v>
       </c>
       <c r="D448" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E448" t="s">
         <v>15</v>
       </c>
       <c r="F448" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G448">
         <v>1</v>
@@ -10873,7 +10873,7 @@
         <v>2050</v>
       </c>
       <c r="D449" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E449" t="s">
         <v>15</v>
@@ -10896,13 +10896,13 @@
         <v>2050</v>
       </c>
       <c r="D450" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E450" t="s">
         <v>15</v>
       </c>
       <c r="F450" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G450">
         <v>1</v>
@@ -10919,13 +10919,13 @@
         <v>2050</v>
       </c>
       <c r="D451" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E451" t="s">
         <v>15</v>
       </c>
       <c r="F451" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G451">
         <v>1</v>
@@ -10942,13 +10942,13 @@
         <v>2050</v>
       </c>
       <c r="D452" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E452" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F452" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G452">
         <v>1</v>
@@ -10965,13 +10965,13 @@
         <v>2050</v>
       </c>
       <c r="D453" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E453" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F453" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G453">
         <v>1</v>
@@ -10988,10 +10988,10 @@
         <v>2050</v>
       </c>
       <c r="D454" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E454" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F454" t="s">
         <v>12</v>
@@ -11011,13 +11011,13 @@
         <v>2050</v>
       </c>
       <c r="D455" t="s">
+        <v>20</v>
+      </c>
+      <c r="E455" t="s">
+        <v>54</v>
+      </c>
+      <c r="F455" t="s">
         <v>21</v>
-      </c>
-      <c r="E455" t="s">
-        <v>16</v>
-      </c>
-      <c r="F455" t="s">
-        <v>24</v>
       </c>
       <c r="G455">
         <v>1</v>
@@ -11034,13 +11034,13 @@
         <v>2050</v>
       </c>
       <c r="D456" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E456" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F456" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G456">
         <v>1</v>
@@ -11051,19 +11051,19 @@
         <v>6</v>
       </c>
       <c r="B457" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C457">
         <v>2050</v>
       </c>
       <c r="D457" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E457" t="s">
         <v>9</v>
       </c>
       <c r="F457" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G457">
         <v>1</v>
@@ -11074,19 +11074,19 @@
         <v>6</v>
       </c>
       <c r="B458" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C458">
         <v>2050</v>
       </c>
       <c r="D458" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E458" t="s">
         <v>9</v>
       </c>
       <c r="F458" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G458">
         <v>1</v>
@@ -11097,13 +11097,13 @@
         <v>12</v>
       </c>
       <c r="B459" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C459">
         <v>2050</v>
       </c>
       <c r="D459" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E459" t="s">
         <v>9</v>
@@ -11120,19 +11120,19 @@
         <v>12</v>
       </c>
       <c r="B460" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C460">
         <v>2050</v>
       </c>
       <c r="D460" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E460" t="s">
         <v>9</v>
       </c>
       <c r="F460" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G460">
         <v>0.85675922201977284</v>
@@ -11143,19 +11143,19 @@
         <v>12</v>
       </c>
       <c r="B461" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C461">
         <v>2050</v>
       </c>
       <c r="D461" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E461" t="s">
         <v>9</v>
       </c>
       <c r="F461" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G461">
         <v>0.85822630093871644</v>
@@ -11166,19 +11166,19 @@
         <v>6</v>
       </c>
       <c r="B462" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C462">
         <v>2050</v>
       </c>
       <c r="D462" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E462" t="s">
         <v>14</v>
       </c>
       <c r="F462" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G462">
         <v>1</v>
@@ -11189,19 +11189,19 @@
         <v>6</v>
       </c>
       <c r="B463" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C463">
         <v>2050</v>
       </c>
       <c r="D463" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E463" t="s">
         <v>14</v>
       </c>
       <c r="F463" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G463">
         <v>1</v>
@@ -11212,13 +11212,13 @@
         <v>12</v>
       </c>
       <c r="B464" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C464">
         <v>2050</v>
       </c>
       <c r="D464" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E464" t="s">
         <v>14</v>
@@ -11235,19 +11235,19 @@
         <v>12</v>
       </c>
       <c r="B465" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C465">
         <v>2050</v>
       </c>
       <c r="D465" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E465" t="s">
         <v>14</v>
       </c>
       <c r="F465" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G465">
         <v>0.86282219322928833</v>
@@ -11258,19 +11258,19 @@
         <v>12</v>
       </c>
       <c r="B466" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C466">
         <v>2050</v>
       </c>
       <c r="D466" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E466" t="s">
         <v>14</v>
       </c>
       <c r="F466" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G466">
         <v>0.86276759353606802</v>
@@ -11281,19 +11281,19 @@
         <v>6</v>
       </c>
       <c r="B467" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C467">
         <v>2050</v>
       </c>
       <c r="D467" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E467" t="s">
         <v>15</v>
       </c>
       <c r="F467" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G467">
         <v>1</v>
@@ -11304,19 +11304,19 @@
         <v>6</v>
       </c>
       <c r="B468" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C468">
         <v>2050</v>
       </c>
       <c r="D468" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E468" t="s">
         <v>15</v>
       </c>
       <c r="F468" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G468">
         <v>1</v>
@@ -11327,13 +11327,13 @@
         <v>12</v>
       </c>
       <c r="B469" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C469">
         <v>2050</v>
       </c>
       <c r="D469" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E469" t="s">
         <v>15</v>
@@ -11350,19 +11350,19 @@
         <v>12</v>
       </c>
       <c r="B470" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C470">
         <v>2050</v>
       </c>
       <c r="D470" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E470" t="s">
         <v>15</v>
       </c>
       <c r="F470" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G470">
         <v>0.85673361025784178</v>
@@ -11373,19 +11373,19 @@
         <v>12</v>
       </c>
       <c r="B471" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C471">
         <v>2050</v>
       </c>
       <c r="D471" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E471" t="s">
         <v>15</v>
       </c>
       <c r="F471" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G471">
         <v>0.85820833725964085</v>
@@ -11396,19 +11396,19 @@
         <v>6</v>
       </c>
       <c r="B472" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C472">
         <v>2050</v>
       </c>
       <c r="D472" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E472" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F472" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G472">
         <v>1</v>
@@ -11419,19 +11419,19 @@
         <v>6</v>
       </c>
       <c r="B473" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C473">
         <v>2050</v>
       </c>
       <c r="D473" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E473" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F473" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G473">
         <v>1</v>
@@ -11442,16 +11442,16 @@
         <v>12</v>
       </c>
       <c r="B474" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C474">
         <v>2050</v>
       </c>
       <c r="D474" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E474" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F474" t="s">
         <v>12</v>
@@ -11465,19 +11465,19 @@
         <v>12</v>
       </c>
       <c r="B475" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C475">
         <v>2050</v>
       </c>
       <c r="D475" t="s">
+        <v>20</v>
+      </c>
+      <c r="E475" t="s">
+        <v>54</v>
+      </c>
+      <c r="F475" t="s">
         <v>21</v>
-      </c>
-      <c r="E475" t="s">
-        <v>16</v>
-      </c>
-      <c r="F475" t="s">
-        <v>24</v>
       </c>
       <c r="G475">
         <v>0.85669842232259497</v>
@@ -11488,19 +11488,19 @@
         <v>12</v>
       </c>
       <c r="B476" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C476">
         <v>2050</v>
       </c>
       <c r="D476" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E476" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F476" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G476">
         <v>0.85818118559695911</v>
@@ -11511,19 +11511,19 @@
         <v>6</v>
       </c>
       <c r="B477" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C477">
         <v>2050</v>
       </c>
       <c r="D477" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E477" t="s">
         <v>9</v>
       </c>
       <c r="F477" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G477">
         <v>1</v>
@@ -11534,19 +11534,19 @@
         <v>6</v>
       </c>
       <c r="B478" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C478">
         <v>2050</v>
       </c>
       <c r="D478" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E478" t="s">
         <v>9</v>
       </c>
       <c r="F478" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G478">
         <v>1</v>
@@ -11557,13 +11557,13 @@
         <v>12</v>
       </c>
       <c r="B479" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C479">
         <v>2050</v>
       </c>
       <c r="D479" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E479" t="s">
         <v>9</v>
@@ -11580,19 +11580,19 @@
         <v>12</v>
       </c>
       <c r="B480" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C480">
         <v>2050</v>
       </c>
       <c r="D480" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E480" t="s">
         <v>9</v>
       </c>
       <c r="F480" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G480">
         <v>1.0912344856126737</v>
@@ -11603,19 +11603,19 @@
         <v>12</v>
       </c>
       <c r="B481" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C481">
         <v>2050</v>
       </c>
       <c r="D481" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E481" t="s">
         <v>9</v>
       </c>
       <c r="F481" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G481">
         <v>1.0901753505440899</v>
@@ -11626,19 +11626,19 @@
         <v>6</v>
       </c>
       <c r="B482" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C482">
         <v>2050</v>
       </c>
       <c r="D482" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E482" t="s">
         <v>14</v>
       </c>
       <c r="F482" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G482">
         <v>1</v>
@@ -11649,19 +11649,19 @@
         <v>6</v>
       </c>
       <c r="B483" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C483">
         <v>2050</v>
       </c>
       <c r="D483" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E483" t="s">
         <v>14</v>
       </c>
       <c r="F483" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G483">
         <v>1</v>
@@ -11672,13 +11672,13 @@
         <v>12</v>
       </c>
       <c r="B484" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C484">
         <v>2050</v>
       </c>
       <c r="D484" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E484" t="s">
         <v>14</v>
@@ -11695,19 +11695,19 @@
         <v>12</v>
       </c>
       <c r="B485" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C485">
         <v>2050</v>
       </c>
       <c r="D485" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E485" t="s">
         <v>14</v>
       </c>
       <c r="F485" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G485">
         <v>1.0873727915658782</v>
@@ -11718,19 +11718,19 @@
         <v>12</v>
       </c>
       <c r="B486" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C486">
         <v>2050</v>
       </c>
       <c r="D486" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E486" t="s">
         <v>14</v>
       </c>
       <c r="F486" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G486">
         <v>1.0872868553252946</v>
@@ -11741,19 +11741,19 @@
         <v>6</v>
       </c>
       <c r="B487" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C487">
         <v>2050</v>
       </c>
       <c r="D487" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E487" t="s">
         <v>15</v>
       </c>
       <c r="F487" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G487">
         <v>1</v>
@@ -11764,19 +11764,19 @@
         <v>6</v>
       </c>
       <c r="B488" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C488">
         <v>2050</v>
       </c>
       <c r="D488" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E488" t="s">
         <v>15</v>
       </c>
       <c r="F488" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G488">
         <v>1</v>
@@ -11787,13 +11787,13 @@
         <v>12</v>
       </c>
       <c r="B489" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C489">
         <v>2050</v>
       </c>
       <c r="D489" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E489" t="s">
         <v>15</v>
@@ -11810,19 +11810,19 @@
         <v>12</v>
       </c>
       <c r="B490" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C490">
         <v>2050</v>
       </c>
       <c r="D490" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E490" t="s">
         <v>15</v>
       </c>
       <c r="F490" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G490">
         <v>1.0912507985366768</v>
@@ -11833,19 +11833,19 @@
         <v>12</v>
       </c>
       <c r="B491" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C491">
         <v>2050</v>
       </c>
       <c r="D491" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E491" t="s">
         <v>15</v>
       </c>
       <c r="F491" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G491">
         <v>1.0901867763661468</v>
@@ -11856,19 +11856,19 @@
         <v>6</v>
       </c>
       <c r="B492" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C492">
         <v>2050</v>
       </c>
       <c r="D492" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E492" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F492" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G492">
         <v>1</v>
@@ -11879,19 +11879,19 @@
         <v>6</v>
       </c>
       <c r="B493" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C493">
         <v>2050</v>
       </c>
       <c r="D493" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E493" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F493" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G493">
         <v>1</v>
@@ -11902,16 +11902,16 @@
         <v>12</v>
       </c>
       <c r="B494" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C494">
         <v>2050</v>
       </c>
       <c r="D494" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E494" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F494" t="s">
         <v>12</v>
@@ -11925,19 +11925,19 @@
         <v>12</v>
       </c>
       <c r="B495" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C495">
         <v>2050</v>
       </c>
       <c r="D495" t="s">
+        <v>20</v>
+      </c>
+      <c r="E495" t="s">
+        <v>54</v>
+      </c>
+      <c r="F495" t="s">
         <v>21</v>
-      </c>
-      <c r="E495" t="s">
-        <v>16</v>
-      </c>
-      <c r="F495" t="s">
-        <v>24</v>
       </c>
       <c r="G495">
         <v>1.0912732108219025</v>
@@ -11948,19 +11948,19 @@
         <v>12</v>
       </c>
       <c r="B496" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C496">
         <v>2050</v>
       </c>
       <c r="D496" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E496" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F496" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G496">
         <v>1.0902040462174403</v>
@@ -11998,10 +11998,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -12019,20 +12019,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <f>1/27</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12040,17 +12040,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C28" si="0">1/27</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -12061,20 +12061,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12082,20 +12082,20 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12103,14 +12103,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -12124,20 +12124,20 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12145,20 +12145,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12166,17 +12166,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -12187,20 +12187,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12208,7 +12208,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
@@ -12218,10 +12218,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12229,7 +12229,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
@@ -12239,7 +12239,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -12250,7 +12250,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
@@ -12260,10 +12260,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -12271,7 +12271,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
@@ -12284,7 +12284,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -12292,7 +12292,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
@@ -12313,7 +12313,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
@@ -12326,7 +12326,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12334,7 +12334,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
@@ -12344,10 +12344,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12355,7 +12355,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
@@ -12365,7 +12365,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -12376,7 +12376,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
@@ -12386,10 +12386,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12397,20 +12397,20 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12418,17 +12418,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -12439,20 +12439,20 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12460,20 +12460,20 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12481,14 +12481,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -12502,20 +12502,20 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12523,20 +12523,20 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -12544,17 +12544,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -12565,20 +12565,20 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -12609,10 +12609,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <f>1/9</f>
@@ -12655,20 +12655,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C10" si="0">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12676,20 +12676,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12697,20 +12697,20 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12718,20 +12718,20 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12739,20 +12739,20 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12760,20 +12760,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12781,20 +12781,20 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12802,20 +12802,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -12850,10 +12850,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -12875,20 +12875,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <f>1/4</f>
         <v>0.25</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12896,20 +12896,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C5" si="0">1/4</f>
         <v>0.25</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12917,20 +12917,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12938,7 +12938,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -13051,10 +13051,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5884FE-F2FB-464D-BCCF-6D34DAAA22D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1197B4-7702-4228-AD88-1A9B721031DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost_factor" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="67">
   <si>
     <t>Variability</t>
   </si>
@@ -221,19 +221,10 @@
     <t>OO</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>OB</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>OP</t>
-  </si>
-  <si>
-    <t>expensive</t>
   </si>
   <si>
     <t>BO</t>
@@ -584,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C62B08C-45D2-4F7F-A1A1-F485128869A7}">
   <dimension ref="A1:F496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -10528,11 +10519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28128A58-E689-4D44-8CED-C1FA1569BE0A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -10563,10 +10559,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -10574,17 +10570,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C10" si="0">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10592,17 +10588,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10610,17 +10606,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10628,17 +10624,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10646,17 +10642,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -10664,17 +10660,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10682,17 +10678,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -10700,17 +10696,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -10722,7 +10718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365BFB6-903F-41E7-AC5F-D6EA4CC87EB7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -11575,7 +11571,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11780,7 +11776,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11788,7 +11784,7 @@
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11803,14 +11799,12 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -11823,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -11832,9 +11826,6 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>

--- a/Data/scenarios.xlsx
+++ b/Data/scenarios.xlsx
@@ -1,48 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FF1FC0-52AE-4638-9C2E-7B0056753806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{04FF1FC0-52AE-4638-9C2E-7B0056753806}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{63BFE5FD-40B7-4AC6-BF39-826A63970306}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="41490" windowHeight="16770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost_factor" sheetId="10" r:id="rId1"/>
     <sheet name="fuel_scenarios" sheetId="11" r:id="rId2"/>
-    <sheet name="scenarios_base" sheetId="8" r:id="rId3"/>
-    <sheet name="nine_scenarios" sheetId="9" r:id="rId4"/>
-    <sheet name="four_scenarios" sheetId="4" r:id="rId5"/>
-    <sheet name="EV_scenario" sheetId="6" r:id="rId6"/>
-    <sheet name="variability" sheetId="3" r:id="rId7"/>
+    <sheet name="fuel_scenario_det" sheetId="12" r:id="rId3"/>
+    <sheet name="scenarios_base" sheetId="8" r:id="rId4"/>
+    <sheet name="nine_scenarios" sheetId="9" r:id="rId5"/>
+    <sheet name="four_scenarios" sheetId="4" r:id="rId6"/>
+    <sheet name="EV_scenario" sheetId="6" r:id="rId7"/>
+    <sheet name="variability" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="67">
   <si>
     <t>Variability</t>
   </si>
@@ -250,9 +240,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -297,14 +287,14 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -593,21 +583,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C62B08C-45D2-4F7F-A1A1-F485128869A7}">
   <dimension ref="A1:F498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -627,7 +617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -647,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -667,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -687,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -707,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -727,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -747,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -787,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -807,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -827,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -847,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -867,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -887,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -907,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -927,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -947,7 +937,7 @@
         <v>0.99123237747595705</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -967,7 +957,7 @@
         <v>0.99694703157228148</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -987,7 +977,7 @@
         <v>0.99328002441193364</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +997,7 @@
         <v>0.98475396800030846</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1017,7 @@
         <v>0.99443430171316261</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1037,7 @@
         <v>0.98859305864777691</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1057,7 @@
         <v>0.98489529588568936</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1087,7 +1077,7 @@
         <v>0.99452766196037456</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1097,7 @@
         <v>0.98877174458275574</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1127,7 +1117,7 @@
         <v>0.98820136773318645</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1147,7 +1137,7 @@
         <v>0.99581006248616732</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1167,7 +1157,7 @@
         <v>0.99108020374294459</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1177,7 @@
         <v>0.98667751610584209</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1197,7 @@
         <v>0.99522677138077864</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1217,7 @@
         <v>0.99000935421338521</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1247,7 +1237,7 @@
         <v>1.0030138702426397</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1267,7 +1257,7 @@
         <v>1.0069706504563516</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -1287,7 +1277,7 @@
         <v>1.0153432968629257</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1297,7 @@
         <v>1.005240823499894</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1327,7 +1317,7 @@
         <v>1.0127078082271725</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
@@ -1347,7 +1337,7 @@
         <v>1.0260447504862893</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
@@ -1367,7 +1357,7 @@
         <v>1.0051922420392942</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1377,7 @@
         <v>1.0124946446569481</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
@@ -1407,7 +1397,7 @@
         <v>1.0256367681491996</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1427,7 +1417,7 @@
         <v>1.0040557798417171</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1437,7 @@
         <v>1.0095666203350515</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1467,7 +1457,7 @@
         <v>1.0203660087950106</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +1477,7 @@
         <v>1.0045796038386168</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1507,7 +1497,7 @@
         <v>1.0108984121652742</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1517,7 @@
         <v>1.0228110120561447</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
@@ -1547,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
@@ -1567,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -1607,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
@@ -1627,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>6</v>
       </c>
@@ -1667,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
@@ -1707,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
@@ -1767,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
@@ -1847,7 +1837,7 @@
         <v>0.97208023823636724</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -1867,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>15</v>
       </c>
@@ -1887,7 +1877,7 @@
         <v>0.99038158734414561</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -1907,7 +1897,7 @@
         <v>0.95054215504160899</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>15</v>
       </c>
@@ -1927,7 +1917,7 @@
         <v>0.99186435407410223</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -1947,7 +1937,7 @@
         <v>0.98355364230582498</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>15</v>
       </c>
@@ -1967,7 +1957,7 @@
         <v>0.95103655431755652</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +1977,7 @@
         <v>0.99195669374895978</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2007,7 +1997,7 @@
         <v>0.98374999839971577</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>15</v>
       </c>
@@ -2027,7 +2017,7 @@
         <v>0.96210672359626503</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>15</v>
       </c>
@@ -2047,7 +2037,7 @@
         <v>0.9938166203526887</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>15</v>
       </c>
@@ -2067,7 +2057,7 @@
         <v>0.98717183517906304</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
@@ -2087,7 +2077,7 @@
         <v>0.95703023253970709</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>15</v>
       </c>
@@ -2107,7 +2097,7 @@
         <v>0.99296745756134686</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -2127,7 +2117,7 @@
         <v>0.98558760435341541</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>16</v>
       </c>
@@ -2147,7 +2137,7 @@
         <v>1.0114762210930268</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>16</v>
       </c>
@@ -2167,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>16</v>
       </c>
@@ -2187,7 +2177,7 @@
         <v>1.0137605265215794</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>16</v>
       </c>
@@ -2207,7 +2197,7 @@
         <v>1.0203292982344305</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>16</v>
       </c>
@@ -2227,7 +2217,7 @@
         <v>1.0116178290070217</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>16</v>
       </c>
@@ -2247,7 +2237,7 @@
         <v>1.0235288866605576</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>16</v>
       </c>
@@ -2267,7 +2257,7 @@
         <v>1.0201260789001456</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2277,7 @@
         <v>1.0114859665141314</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>16</v>
       </c>
@@ -2307,7 +2297,7 @@
         <v>1.0232479709487527</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>16</v>
       </c>
@@ -2327,7 +2317,7 @@
         <v>1.0155757639205536</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>16</v>
       </c>
@@ -2347,7 +2337,7 @@
         <v>1.0088299623757324</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>16</v>
       </c>
@@ -2367,7 +2357,7 @@
         <v>1.0183525399208411</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>16</v>
       </c>
@@ -2387,7 +2377,7 @@
         <v>1.0176624197536175</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2407,7 +2397,7 @@
         <v>1.0100425800583104</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>16</v>
       </c>
@@ -2427,7 +2417,7 @@
         <v>1.0206190106029198</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
@@ -2447,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
@@ -2467,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>6</v>
       </c>
@@ -2487,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>6</v>
       </c>
@@ -2507,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>6</v>
       </c>
@@ -2527,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>6</v>
       </c>
@@ -2567,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>6</v>
       </c>
@@ -2587,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>6</v>
       </c>
@@ -2607,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>6</v>
       </c>
@@ -2627,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>6</v>
       </c>
@@ -2687,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>6</v>
       </c>
@@ -2727,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>15</v>
       </c>
@@ -2747,7 +2737,7 @@
         <v>0.97311771593843233</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>15</v>
       </c>
@@ -2767,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>15</v>
       </c>
@@ -2787,7 +2777,7 @@
         <v>0.9886675353383011</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>15</v>
       </c>
@@ -2807,7 +2797,7 @@
         <v>0.95174644159803445</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2817,7 @@
         <v>0.98979227923177993</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>15</v>
       </c>
@@ -2847,7 +2837,7 @@
         <v>0.98021265974116756</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>15</v>
       </c>
@@ -2867,7 +2857,7 @@
         <v>0.95226376087785436</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>15</v>
       </c>
@@ -2887,7 +2877,7 @@
         <v>0.98989053383858672</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>15</v>
       </c>
@@ -2907,7 +2897,7 @@
         <v>0.98041411229009656</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>15</v>
       </c>
@@ -2927,7 +2917,7 @@
         <v>0.9632967413493444</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>15</v>
       </c>
@@ -2947,7 +2937,7 @@
         <v>0.99223994415697814</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>15</v>
       </c>
@@ -2967,7 +2957,7 @@
         <v>0.98472487085161342</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>15</v>
       </c>
@@ -2987,7 +2977,7 @@
         <v>0.95825583067299314</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +2997,7 @@
         <v>0.99116744940085943</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>15</v>
       </c>
@@ -3027,7 +3017,7 @@
         <v>0.98274038277518494</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>16</v>
       </c>
@@ -3047,7 +3037,7 @@
         <v>1.0176655009547446</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>16</v>
       </c>
@@ -3067,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>16</v>
       </c>
@@ -3087,7 +3077,7 @@
         <v>1.0106241856203428</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3097,7 @@
         <v>1.0317094812355776</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>16</v>
       </c>
@@ -3127,7 +3117,7 @@
         <v>1.0095697382202065</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>16</v>
       </c>
@@ -3147,7 +3137,7 @@
         <v>1.0185506314926556</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>16</v>
       </c>
@@ -3167,7 +3157,7 @@
         <v>1.0313695285659814</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>16</v>
       </c>
@@ -3187,7 +3177,7 @@
         <v>1.0094776245263251</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>16</v>
       </c>
@@ -3207,7 +3197,7 @@
         <v>1.0183617697280345</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>16</v>
       </c>
@@ -3227,7 +3217,7 @@
         <v>1.0241192842561451</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>16</v>
       </c>
@@ -3247,7 +3237,7 @@
         <v>1.0072750523528331</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>16</v>
       </c>
@@ -3267,7 +3257,7 @@
         <v>1.0143204335766123</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>16</v>
       </c>
@@ -3287,7 +3277,7 @@
         <v>1.0274318827006046</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>16</v>
       </c>
@@ -3307,7 +3297,7 @@
         <v>1.0082805161866941</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>16</v>
       </c>
@@ -3327,7 +3317,7 @@
         <v>1.0161808911482648</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>6</v>
       </c>
@@ -3347,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>6</v>
       </c>
@@ -3367,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>6</v>
       </c>
@@ -3387,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>6</v>
       </c>
@@ -3407,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>6</v>
       </c>
@@ -3427,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>6</v>
       </c>
@@ -3447,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>6</v>
       </c>
@@ -3467,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>6</v>
       </c>
@@ -3487,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>6</v>
       </c>
@@ -3507,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>6</v>
       </c>
@@ -3527,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>6</v>
       </c>
@@ -3547,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>6</v>
       </c>
@@ -3567,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>6</v>
       </c>
@@ -3587,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>6</v>
       </c>
@@ -3607,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>6</v>
       </c>
@@ -3627,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>6</v>
       </c>
@@ -3647,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>6</v>
       </c>
@@ -3667,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>6</v>
       </c>
@@ -3687,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>6</v>
       </c>
@@ -3707,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>6</v>
       </c>
@@ -3727,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>15</v>
       </c>
@@ -3747,7 +3737,7 @@
         <v>0.97560322033887004</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>15</v>
       </c>
@@ -3767,7 +3757,7 @@
         <v>0.98959809666762255</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>15</v>
       </c>
@@ -3787,7 +3777,7 @@
         <v>0.99187203545265257</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>15</v>
       </c>
@@ -3807,7 +3797,7 @@
         <v>0.98555618553248037</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>15</v>
       </c>
@@ -3827,7 +3817,7 @@
         <v>0.97578544697934166</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>15</v>
       </c>
@@ -3847,7 +3837,7 @@
         <v>0.98969351470431755</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>15</v>
       </c>
@@ -3867,7 +3857,7 @@
         <v>0.99192666048633926</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>15</v>
       </c>
@@ -3887,7 +3877,7 @@
         <v>0.98563303886617049</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>15</v>
       </c>
@@ -3907,7 +3897,7 @@
         <v>0.9743646957546509</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>15</v>
       </c>
@@ -3927,7 +3917,7 @@
         <v>0.9889407792200865</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>15</v>
       </c>
@@ -3947,7 +3937,7 @@
         <v>0.99149985622352643</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>15</v>
       </c>
@@ -3967,7 +3957,7 @@
         <v>0.98504038224393664</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>15</v>
       </c>
@@ -3987,7 +3977,7 @@
         <v>0.98307035983379165</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>15</v>
       </c>
@@ -4007,7 +3997,7 @@
         <v>0.99325696306799649</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>15</v>
       </c>
@@ -4027,7 +4017,7 @@
         <v>0.99419049795111536</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>15</v>
       </c>
@@ -4047,7 +4037,7 @@
         <v>0.98901211475016382</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>15</v>
       </c>
@@ -4067,7 +4057,7 @@
         <v>0.97533049739761191</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>15</v>
       </c>
@@ -4087,7 +4077,7 @@
         <v>0.9894546780276956</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>15</v>
       </c>
@@ -4107,7 +4097,7 @@
         <v>0.99178920979474661</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>15</v>
       </c>
@@ -4127,7 +4117,7 @@
         <v>0.98544092602326894</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>16</v>
       </c>
@@ -4147,7 +4137,7 @@
         <v>1.0083863930085133</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>16</v>
       </c>
@@ -4167,7 +4157,7 @@
         <v>1.0237500104987809</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>16</v>
       </c>
@@ -4187,7 +4177,7 @@
         <v>1.0185580693422105</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>16</v>
       </c>
@@ -4207,7 +4197,7 @@
         <v>1.0329786515298851</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>16</v>
       </c>
@@ -4227,7 +4217,7 @@
         <v>1.0083237526008513</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>16</v>
       </c>
@@ -4247,7 +4237,7 @@
         <v>1.0235321485074833</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>16</v>
       </c>
@@ -4267,7 +4257,7 @@
         <v>1.0184333474444862</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>16</v>
       </c>
@@ -4287,7 +4277,7 @@
         <v>1.0328031771552757</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>16</v>
       </c>
@@ -4307,7 +4297,7 @@
         <v>1.0088121358343387</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>16</v>
       </c>
@@ -4327,7 +4317,7 @@
         <v>1.0252508220119414</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>16</v>
       </c>
@@ -4347,7 +4337,7 @@
         <v>1.0194078427266304</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>16</v>
       </c>
@@ -4367,7 +4357,7 @@
         <v>1.0341563526800288</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>16</v>
       </c>
@@ -4387,7 +4377,7 @@
         <v>1.0058195638071343</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>16</v>
       </c>
@@ -4407,7 +4397,7 @@
         <v>1.0153959513765396</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>16</v>
       </c>
@@ -4427,7 +4417,7 @@
         <v>1.0132644699960081</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>16</v>
       </c>
@@ -4447,7 +4437,7 @@
         <v>1.0250879460906666</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>16</v>
       </c>
@@ -4467,7 +4457,7 @@
         <v>1.008480141519571</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>16</v>
       </c>
@@ -4487,7 +4477,7 @@
         <v>1.0240774692431227</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>16</v>
       </c>
@@ -4507,7 +4497,7 @@
         <v>1.0187471799484111</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>16</v>
       </c>
@@ -4527,7 +4517,7 @@
         <v>1.033241816305253</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>6</v>
       </c>
@@ -4547,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>6</v>
       </c>
@@ -4567,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>6</v>
       </c>
@@ -4587,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>6</v>
       </c>
@@ -4607,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>6</v>
       </c>
@@ -4627,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>6</v>
       </c>
@@ -4647,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>6</v>
       </c>
@@ -4667,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>6</v>
       </c>
@@ -4687,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>6</v>
       </c>
@@ -4707,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>6</v>
       </c>
@@ -4727,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>6</v>
       </c>
@@ -4747,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>6</v>
       </c>
@@ -4767,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>6</v>
       </c>
@@ -4787,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>6</v>
       </c>
@@ -4807,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>6</v>
       </c>
@@ -4827,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>6</v>
       </c>
@@ -4847,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>6</v>
       </c>
@@ -4867,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>6</v>
       </c>
@@ -4887,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>6</v>
       </c>
@@ -4907,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>6</v>
       </c>
@@ -4927,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>15</v>
       </c>
@@ -4947,7 +4937,7 @@
         <v>0.91311881356800995</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>15</v>
       </c>
@@ -4967,7 +4957,7 @@
         <v>0.98477449510203774</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>15</v>
       </c>
@@ -4987,7 +4977,7 @@
         <v>0.98696276099091129</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>15</v>
       </c>
@@ -5007,7 +4997,7 @@
         <v>0.97680251632358206</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>15</v>
       </c>
@@ -5027,7 +5017,7 @@
         <v>0.91379910353539295</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>15</v>
       </c>
@@ -5047,7 +5037,7 @@
         <v>0.98491212721321675</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>15</v>
       </c>
@@ -5067,7 +5057,7 @@
         <v>0.98705744173892607</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>15</v>
       </c>
@@ -5087,7 +5077,7 @@
         <v>0.97695054782858171</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>15</v>
       </c>
@@ -5107,7 +5097,7 @@
         <v>0.90848200097264742</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>15</v>
       </c>
@@ -5127,7 +5117,7 @@
         <v>0.98382737971665579</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>15</v>
       </c>
@@ -5147,7 +5137,7 @@
         <v>0.98631607342809213</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>15</v>
       </c>
@@ -5167,7 +5157,7 @@
         <v>0.97580076241328517</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>15</v>
       </c>
@@ -5187,7 +5177,7 @@
         <v>0.94059586321929411</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>15</v>
       </c>
@@ -5207,7 +5197,7 @@
         <v>0.99007878892177648</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>15</v>
       </c>
@@ -5227,7 +5217,7 @@
         <v>0.99088875252714015</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>15</v>
       </c>
@@ -5247,7 +5237,7 @@
         <v>0.98316109791249662</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>15</v>
       </c>
@@ -5267,7 +5257,7 @@
         <v>0.91209975715638192</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>15</v>
       </c>
@@ -5287,7 +5277,7 @@
         <v>0.98456769612244088</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>15</v>
       </c>
@@ -5307,7 +5297,7 @@
         <v>0.9868194655673318</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>15</v>
       </c>
@@ -5327,7 +5317,7 @@
         <v>0.97657991526351362</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>16</v>
       </c>
@@ -5347,7 +5337,7 @@
         <v>1.0357118987174436</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>16</v>
       </c>
@@ -5367,7 +5357,7 @@
         <v>1.0217422579671291</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>16</v>
       </c>
@@ -5387,7 +5377,7 @@
         <v>1.0186173802192049</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>16</v>
       </c>
@@ -5407,7 +5397,7 @@
         <v>1.0331873460605747</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>16</v>
       </c>
@@ -5427,7 +5417,7 @@
         <v>1.0354322703259429</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>16</v>
       </c>
@@ -5447,7 +5437,7 @@
         <v>1.0215457171702307</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>16</v>
       </c>
@@ -5467,7 +5457,7 @@
         <v>1.0184821746374093</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>16</v>
       </c>
@@ -5487,7 +5477,7 @@
         <v>1.032975565642801</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>16</v>
       </c>
@@ -5507,7 +5497,7 @@
         <v>1.037617827821059</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>16</v>
       </c>
@@ -5527,7 +5517,7 @@
         <v>1.0230947534785499</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>16</v>
       </c>
@@ -5547,7 +5537,7 @@
         <v>1.0195408601240865</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>16</v>
       </c>
@@ -5567,7 +5557,7 @@
         <v>1.0346204995074009</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>16</v>
       </c>
@@ -5587,7 +5577,7 @@
         <v>1.0244176513147685</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>16</v>
       </c>
@@ -5607,7 +5597,7 @@
         <v>1.0141676438354399</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>16</v>
       </c>
@@ -5627,7 +5617,7 @@
         <v>1.0130110032005433</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>16</v>
       </c>
@@ -5647,7 +5637,7 @@
         <v>1.0240904780300037</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>16</v>
       </c>
@@ -5667,7 +5657,7 @@
         <v>1.0361307746657815</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>16</v>
       </c>
@@ -5687,7 +5677,7 @@
         <v>1.0220375701286546</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>16</v>
       </c>
@@ -5707,7 +5697,7 @@
         <v>1.0188220083143551</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>16</v>
       </c>
@@ -5727,7 +5717,7 @@
         <v>1.0335058089816824</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>6</v>
       </c>
@@ -5747,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>6</v>
       </c>
@@ -5767,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>6</v>
       </c>
@@ -5787,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>6</v>
       </c>
@@ -5807,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>6</v>
       </c>
@@ -5827,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>6</v>
       </c>
@@ -5847,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>6</v>
       </c>
@@ -5867,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>6</v>
       </c>
@@ -5887,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>6</v>
       </c>
@@ -5907,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>6</v>
       </c>
@@ -5927,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>6</v>
       </c>
@@ -5947,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>6</v>
       </c>
@@ -5967,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>6</v>
       </c>
@@ -5987,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>6</v>
       </c>
@@ -6007,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>6</v>
       </c>
@@ -6027,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>6</v>
       </c>
@@ -6047,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>6</v>
       </c>
@@ -6067,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>6</v>
       </c>
@@ -6087,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>6</v>
       </c>
@@ -6107,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>6</v>
       </c>
@@ -6127,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>15</v>
       </c>
@@ -6147,7 +6137,7 @@
         <v>0.90431046733281617</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>15</v>
       </c>
@@ -6167,7 +6157,7 @@
         <v>0.98066648848677651</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>15</v>
       </c>
@@ -6187,7 +6177,7 @@
         <v>0.98118018652284367</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>15</v>
       </c>
@@ -6207,7 +6197,7 @@
         <v>0.9667705247070536</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>15</v>
       </c>
@@ -6227,7 +6217,7 @@
         <v>0.90507894822232582</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>15</v>
       </c>
@@ -6247,7 +6237,7 @@
         <v>0.98084468664129654</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>15</v>
       </c>
@@ -6267,7 +6257,7 @@
         <v>0.98133873459721155</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>15</v>
       </c>
@@ -6287,7 +6277,7 @@
         <v>0.96706028296676316</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>15</v>
       </c>
@@ -6307,7 +6297,7 @@
         <v>0.89906424986937139</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>15</v>
       </c>
@@ -6327,7 +6317,7 @@
         <v>0.97943848441150672</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>15</v>
       </c>
@@ -6347,7 +6337,7 @@
         <v>0.98008984058990267</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>15</v>
       </c>
@@ -6367,7 +6357,7 @@
         <v>0.96477316930373147</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>15</v>
       </c>
@@ -6387,7 +6377,7 @@
         <v>0.9351040033640603</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>15</v>
       </c>
@@ -6407,7 +6397,7 @@
         <v>0.9874883170087837</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>15</v>
       </c>
@@ -6427,7 +6417,7 @@
         <v>0.98744966304684545</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>15</v>
       </c>
@@ -6447,7 +6437,7 @@
         <v>0.97809833594378248</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>15</v>
       </c>
@@ -6467,7 +6457,7 @@
         <v>0.90315872079675574</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>15</v>
       </c>
@@ -6487,7 +6477,7 @@
         <v>0.98039861697836606</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>15</v>
       </c>
@@ -6507,7 +6497,7 @@
         <v>0.98094053343434851</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>15</v>
       </c>
@@ -6527,7 +6517,7 @@
         <v>0.96633222048483269</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>16</v>
       </c>
@@ -6547,7 +6537,7 @@
         <v>1.0628816928955782</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>16</v>
       </c>
@@ -6567,7 +6557,7 @@
         <v>1.0181251670436473</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>16</v>
       </c>
@@ -6587,7 +6577,7 @@
         <v>1.0176435751348338</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>16</v>
       </c>
@@ -6607,7 +6597,7 @@
         <v>1.0311526330871377</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>16</v>
       </c>
@@ -6627,7 +6617,7 @@
         <v>1.062376691168186</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>16</v>
       </c>
@@ -6647,7 +6637,7 @@
         <v>1.0179581062737844</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>16</v>
       </c>
@@ -6667,7 +6657,7 @@
         <v>1.0174949363151145</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>16</v>
       </c>
@@ -6687,7 +6677,7 @@
         <v>1.0308809847186597</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>16</v>
       </c>
@@ -6707,7 +6697,7 @@
         <v>1.0663292072286992</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>16</v>
       </c>
@@ -6727,7 +6717,7 @@
         <v>1.0192764208642127</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>16</v>
       </c>
@@ -6747,7 +6737,7 @@
         <v>1.0186657744469665</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>16</v>
       </c>
@@ -6767,7 +6757,7 @@
         <v>1.0330251537777524</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>16</v>
       </c>
@@ -6787,7 +6777,7 @@
         <v>1.0426459406464745</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>16</v>
       </c>
@@ -6807,7 +6797,7 @@
         <v>1.0117297028042653</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>16</v>
       </c>
@@ -6827,7 +6817,7 @@
         <v>1.0117659408935826</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>16</v>
       </c>
@@ -6847,7 +6837,7 @@
         <v>1.0205328100527036</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>16</v>
       </c>
@@ -6867,7 +6857,7 @@
         <v>1.0636385549049889</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>16</v>
       </c>
@@ -6887,7 +6877,7 @@
         <v>1.0183762965827818</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>16</v>
       </c>
@@ -6907,7 +6897,7 @@
         <v>1.0178682499052982</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>16</v>
       </c>
@@ -6927,7 +6917,7 @@
         <v>1.0315635432954693</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>6</v>
       </c>
@@ -6947,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>6</v>
       </c>
@@ -6967,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>6</v>
       </c>
@@ -6987,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>6</v>
       </c>
@@ -7007,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>6</v>
       </c>
@@ -7027,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>6</v>
       </c>
@@ -7047,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>6</v>
       </c>
@@ -7067,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>6</v>
       </c>
@@ -7087,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>6</v>
       </c>
@@ -7107,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>6</v>
       </c>
@@ -7127,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>6</v>
       </c>
@@ -7147,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>6</v>
       </c>
@@ -7167,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>6</v>
       </c>
@@ -7187,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>6</v>
       </c>
@@ -7207,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>6</v>
       </c>
@@ -7227,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>6</v>
       </c>
@@ -7247,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>6</v>
       </c>
@@ -7267,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>6</v>
       </c>
@@ -7287,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>6</v>
       </c>
@@ -7307,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>6</v>
       </c>
@@ -7327,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>15</v>
       </c>
@@ -7347,7 +7337,7 @@
         <v>0.9540144524332751</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>15</v>
       </c>
@@ -7367,7 +7357,7 @@
         <v>0.93318422593657946</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>15</v>
       </c>
@@ -7387,7 +7377,7 @@
         <v>0.96146417529559902</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>15</v>
       </c>
@@ -7407,7 +7397,7 @@
         <v>0.95273613491746512</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>15</v>
       </c>
@@ -7427,7 +7417,7 @@
         <v>0.97064367546430808</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>15</v>
       </c>
@@ -7447,7 +7437,7 @@
         <v>0.95739313812106819</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>15</v>
       </c>
@@ -7467,7 +7457,7 @@
         <v>0.93646574423698159</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>15</v>
       </c>
@@ -7487,7 +7477,7 @@
         <v>0.96240955690171293</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>15</v>
       </c>
@@ -7507,7 +7497,7 @@
         <v>0.9539923433951204</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>15</v>
       </c>
@@ -7527,7 +7517,7 @@
         <v>0.97104646495867697</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>15</v>
       </c>
@@ -7547,7 +7537,7 @@
         <v>0.95400153203318749</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>15</v>
       </c>
@@ -7567,7 +7557,7 @@
         <v>0.93317199978713794</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>15</v>
       </c>
@@ -7587,7 +7577,7 @@
         <v>0.96146004754148318</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>15</v>
       </c>
@@ -7607,7 +7597,7 @@
         <v>0.95273082359263117</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>15</v>
       </c>
@@ -7627,7 +7617,7 @@
         <v>0.97064211187339855</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>15</v>
       </c>
@@ -7647,7 +7637,7 @@
         <v>0.95397930577775814</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>15</v>
       </c>
@@ -7667,7 +7657,7 @@
         <v>0.93315097341633613</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>15</v>
       </c>
@@ -7687,7 +7677,7 @@
         <v>0.96145488307403493</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>15</v>
       </c>
@@ -7707,7 +7697,7 @@
         <v>0.95272374928097547</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>15</v>
       </c>
@@ -7727,7 +7717,7 @@
         <v>0.97063974897970484</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>16</v>
       </c>
@@ -7747,7 +7737,7 @@
         <v>1.0158075319760618</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>16</v>
       </c>
@@ -7767,7 +7757,7 @@
         <v>1.0229679223343009</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>16</v>
       </c>
@@ -7787,7 +7777,7 @@
         <v>1.0879864205678518</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>16</v>
       </c>
@@ -7807,7 +7797,7 @@
         <v>1.1079146052462492</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>16</v>
       </c>
@@ -7827,7 +7817,7 @@
         <v>1.0670274461942104</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>16</v>
       </c>
@@ -7847,7 +7837,7 @@
         <v>1.0146461087708827</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>16</v>
       </c>
@@ -7867,7 +7857,7 @@
         <v>1.0218399004185375</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>16</v>
       </c>
@@ -7887,7 +7877,7 @@
         <v>1.0858278903111178</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>16</v>
       </c>
@@ -7907,7 +7897,7 @@
         <v>1.1050463835776145</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>16</v>
       </c>
@@ -7927,7 +7917,7 @@
         <v>1.0661077823197846</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>16</v>
       </c>
@@ -7947,7 +7937,7 @@
         <v>1.0158119733635917</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>16</v>
       </c>
@@ -7967,7 +7957,7 @@
         <v>1.0229721250731711</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>16</v>
       </c>
@@ -7987,7 +7977,7 @@
         <v>1.0879958452087526</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>16</v>
       </c>
@@ -8007,7 +7997,7 @@
         <v>1.1079267322595985</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>16</v>
       </c>
@@ -8027,7 +8017,7 @@
         <v>1.0670310162428187</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>16</v>
       </c>
@@ -8047,7 +8037,7 @@
         <v>1.0158196136388957</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>16</v>
       </c>
@@ -8067,7 +8057,7 @@
         <v>1.0229793528881344</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>16</v>
       </c>
@@ -8087,7 +8077,7 @@
         <v>1.0880076369118854</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>16</v>
       </c>
@@ -8107,7 +8097,7 @@
         <v>1.107942884589679</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>16</v>
       </c>
@@ -8127,7 +8117,7 @@
         <v>1.067036411289114</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>6</v>
       </c>
@@ -8147,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>6</v>
       </c>
@@ -8167,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>6</v>
       </c>
@@ -8187,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>6</v>
       </c>
@@ -8207,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>6</v>
       </c>
@@ -8227,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>6</v>
       </c>
@@ -8247,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>6</v>
       </c>
@@ -8267,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>6</v>
       </c>
@@ -8287,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>6</v>
       </c>
@@ -8307,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>6</v>
       </c>
@@ -8327,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>6</v>
       </c>
@@ -8347,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>6</v>
       </c>
@@ -8367,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>6</v>
       </c>
@@ -8387,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>6</v>
       </c>
@@ -8407,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>6</v>
       </c>
@@ -8427,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>6</v>
       </c>
@@ -8447,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>6</v>
       </c>
@@ -8467,7 +8457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>6</v>
       </c>
@@ -8487,7 +8477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>6</v>
       </c>
@@ -8507,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>6</v>
       </c>
@@ -8527,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>15</v>
       </c>
@@ -8547,7 +8537,7 @@
         <v>0.82870234801877418</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>15</v>
       </c>
@@ -8567,7 +8557,7 @@
         <v>0.73835121583803198</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>15</v>
       </c>
@@ -8587,7 +8577,7 @@
         <v>0.93753665040880552</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>15</v>
       </c>
@@ -8607,7 +8597,7 @@
         <v>0.92804871734830874</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>15</v>
       </c>
@@ -8627,7 +8617,7 @@
         <v>0.93916520712563734</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>15</v>
       </c>
@@ -8647,7 +8637,7 @@
         <v>0.84250689294898151</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>15</v>
       </c>
@@ -8667,7 +8657,7 @@
         <v>0.75316530828842887</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>15</v>
       </c>
@@ -8687,7 +8677,7 @@
         <v>0.93928673148387354</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>15</v>
       </c>
@@ -8707,7 +8697,7 @@
         <v>0.93010321230847193</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>15</v>
       </c>
@@ -8727,7 +8717,7 @@
         <v>0.94037487721817903</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>15</v>
       </c>
@@ -8747,7 +8737,7 @@
         <v>0.82864914807630097</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>15</v>
       </c>
@@ -8767,7 +8757,7 @@
         <v>0.73829558132911666</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>15</v>
       </c>
@@ -8787,7 +8777,7 @@
         <v>0.93752900864987176</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>15</v>
       </c>
@@ -8807,7 +8797,7 @@
         <v>0.92804002894442783</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>15</v>
       </c>
@@ -8827,7 +8817,7 @@
         <v>0.93916048165345323</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>15</v>
       </c>
@@ -8847,7 +8837,7 @@
         <v>0.82855762376584252</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>15</v>
       </c>
@@ -8867,7 +8857,7 @@
         <v>0.73819989411925202</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>15</v>
       </c>
@@ -8887,7 +8877,7 @@
         <v>0.93751938467810003</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>15</v>
       </c>
@@ -8907,7 +8897,7 @@
         <v>0.928028418354094</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>15</v>
       </c>
@@ -8927,7 +8917,7 @@
         <v>0.93915334009684803</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>16</v>
       </c>
@@ -8947,7 +8937,7 @@
         <v>1.0704106913051665</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>16</v>
       </c>
@@ -8967,7 +8957,7 @@
         <v>1.1075488867414225</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>16</v>
       </c>
@@ -8987,7 +8977,7 @@
         <v>1.0893628303785809</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>16</v>
       </c>
@@ -9007,7 +8997,7 @@
         <v>1.102936687020557</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>16</v>
       </c>
@@ -9027,7 +9017,7 @@
         <v>1.0870329451162544</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>16</v>
       </c>
@@ -9047,7 +9037,7 @@
         <v>1.0647364305056337</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>16</v>
       </c>
@@ -9067,7 +9057,7 @@
         <v>1.1014596585562899</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>16</v>
       </c>
@@ -9087,7 +9077,7 @@
         <v>1.0868590869949228</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>16</v>
       </c>
@@ -9107,7 +9097,7 @@
         <v>1.0999974356701199</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>16</v>
       </c>
@@ -9127,7 +9117,7 @@
         <v>1.0853023375839761</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>16</v>
       </c>
@@ -9147,7 +9137,7 @@
         <v>1.0704325587661827</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>16</v>
       </c>
@@ -9167,7 +9157,7 @@
         <v>1.1075717549137987</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>16</v>
       </c>
@@ -9187,7 +9177,7 @@
         <v>1.0893737630168694</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>16</v>
       </c>
@@ -9207,7 +9197,7 @@
         <v>1.1029491170353949</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>16</v>
       </c>
@@ -9227,7 +9217,7 @@
         <v>1.0870397055857457</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>16</v>
       </c>
@@ -9247,7 +9237,7 @@
         <v>1.0704701791882731</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>16</v>
       </c>
@@ -9267,7 +9257,7 @@
         <v>1.1076110864663196</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>16</v>
       </c>
@@ -9287,7 +9277,7 @@
         <v>1.089387531496508</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>16</v>
       </c>
@@ -9307,7 +9297,7 @@
         <v>1.1029657276594071</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>16</v>
       </c>
@@ -9327,7 +9317,7 @@
         <v>1.0870499226124619</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>6</v>
       </c>
@@ -9347,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>6</v>
       </c>
@@ -9367,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>6</v>
       </c>
@@ -9387,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>6</v>
       </c>
@@ -9407,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>6</v>
       </c>
@@ -9427,7 +9417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>6</v>
       </c>
@@ -9447,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>6</v>
       </c>
@@ -9467,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>6</v>
       </c>
@@ -9487,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>6</v>
       </c>
@@ -9507,7 +9497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>6</v>
       </c>
@@ -9527,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>6</v>
       </c>
@@ -9547,7 +9537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>6</v>
       </c>
@@ -9567,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>6</v>
       </c>
@@ -9587,7 +9577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>6</v>
       </c>
@@ -9607,7 +9597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>6</v>
       </c>
@@ -9627,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>6</v>
       </c>
@@ -9647,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>6</v>
       </c>
@@ -9667,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>6</v>
       </c>
@@ -9687,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>6</v>
       </c>
@@ -9707,7 +9697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>6</v>
       </c>
@@ -9727,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>15</v>
       </c>
@@ -9747,7 +9737,7 @@
         <v>0.81532004109965084</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>15</v>
       </c>
@@ -9767,7 +9757,7 @@
         <v>0.70353751502792938</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>15</v>
       </c>
@@ -9787,7 +9777,7 @@
         <v>0.90430088955906274</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>15</v>
       </c>
@@ -9807,7 +9797,7 @@
         <v>0.89370673662032452</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>15</v>
       </c>
@@ -9827,7 +9817,7 @@
         <v>0.89553183496293787</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>15</v>
       </c>
@@ -9847,7 +9837,7 @@
         <v>0.83119752026718741</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>15</v>
       </c>
@@ -9867,7 +9857,7 @@
         <v>0.72233155842612773</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>15</v>
       </c>
@@ -9887,7 +9877,7 @@
         <v>0.9082311684216422</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>15</v>
       </c>
@@ -9907,7 +9897,7 @@
         <v>0.89800367098986189</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>15</v>
       </c>
@@ -9927,7 +9917,7 @@
         <v>0.89880257328573265</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>15</v>
       </c>
@@ -9947,7 +9937,7 @@
         <v>0.81525849060209021</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>15</v>
       </c>
@@ -9967,7 +9957,7 @@
         <v>0.70346642119445302</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>15</v>
       </c>
@@ -9987,7 +9977,7 @@
         <v>0.90428400973451495</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>15</v>
       </c>
@@ -10007,7 +9997,7 @@
         <v>0.89368862124159154</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>15</v>
       </c>
@@ -10027,7 +10017,7 @@
         <v>0.89551890682952884</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>15</v>
       </c>
@@ -10047,7 +10037,7 @@
         <v>0.81515259359266967</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>15</v>
       </c>
@@ -10067,7 +10057,7 @@
         <v>0.70334413606128077</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>15</v>
       </c>
@@ -10087,7 +10077,7 @@
         <v>0.90426154805164216</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>15</v>
       </c>
@@ -10107,7 +10097,7 @@
         <v>0.89366373306301206</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>15</v>
       </c>
@@ -10127,7 +10117,7 @@
         <v>0.89549936641626593</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>16</v>
       </c>
@@ -10147,7 +10137,7 @@
         <v>1.121361115848801</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>16</v>
       </c>
@@ -10167,7 +10157,7 @@
         <v>1.1948182044102178</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>16</v>
       </c>
@@ -10187,7 +10177,7 @@
         <v>1.0897179160383792</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>16</v>
       </c>
@@ -10207,7 +10197,7 @@
         <v>1.0996499344184461</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>16</v>
       </c>
@@ -10227,7 +10217,7 @@
         <v>1.0979389047222459</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>16</v>
       </c>
@@ -10247,7 +10237,7 @@
         <v>1.1109273438244194</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>16</v>
       </c>
@@ -10267,7 +10257,7 @@
         <v>1.1824678330342591</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>16</v>
       </c>
@@ -10287,7 +10277,7 @@
         <v>1.0860332796047107</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>16</v>
       </c>
@@ -10307,7 +10297,7 @@
         <v>1.0956215584470046</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>16</v>
       </c>
@@ -10327,7 +10317,7 @@
         <v>1.0948725875446259</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>16</v>
       </c>
@@ -10347,7 +10337,7 @@
         <v>1.1214015633186263</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>16</v>
       </c>
@@ -10367,7 +10357,7 @@
         <v>1.1948649232150734</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>16</v>
       </c>
@@ -10387,7 +10377,7 @@
         <v>1.0897337408738921</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>16</v>
       </c>
@@ -10407,7 +10397,7 @@
         <v>1.0996669175860081</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>16</v>
       </c>
@@ -10427,7 +10417,7 @@
         <v>1.0979510248473168</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>16</v>
       </c>
@@ -10447,7 +10437,7 @@
         <v>1.1214711527819601</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>16</v>
       </c>
@@ -10467,7 +10457,7 @@
         <v>1.1949452820168729</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>16</v>
       </c>
@@ -10487,7 +10477,7 @@
         <v>1.0897547987015856</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>16</v>
       </c>
@@ -10507,7 +10497,7 @@
         <v>1.0996902502534263</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>16</v>
       </c>
@@ -10527,7 +10517,7 @@
         <v>1.0979693439847511</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -10535,7 +10525,7 @@
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -10557,14 +10547,14 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10581,7 +10571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10599,7 +10589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10617,7 +10607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10635,7 +10625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10653,7 +10643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10671,7 +10661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10689,7 +10679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10707,7 +10697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10725,7 +10715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10749,6 +10739,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFD6B7D-0015-408E-A9D0-05101ADD8B60}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365BFB6-903F-41E7-AC5F-D6EA4CC87EB7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -10756,20 +10826,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10790,7 +10860,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10811,7 +10881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10832,7 +10902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10853,7 +10923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10874,7 +10944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10895,7 +10965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10916,7 +10986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10937,7 +11007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10958,7 +11028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10979,7 +11049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11000,7 +11070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11021,7 +11091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11042,7 +11112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11063,7 +11133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11084,7 +11154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11105,7 +11175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11126,7 +11196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11147,7 +11217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11168,7 +11238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11189,7 +11259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11210,7 +11280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11231,7 +11301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -11252,7 +11322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11273,7 +11343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11294,7 +11364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -11315,7 +11385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -11336,7 +11406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -11363,7 +11433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3855497E-5D9C-4120-B481-003A7184F3D7}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -11371,16 +11441,16 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11405,7 +11475,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11426,7 +11496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11447,7 +11517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11468,7 +11538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11489,7 +11559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11510,7 +11580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11531,7 +11601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11552,7 +11622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11573,7 +11643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11600,7 +11670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59180BE-5606-40D4-8893-B1262E6F265B}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -11608,20 +11678,20 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11646,7 +11716,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11667,7 +11737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11688,7 +11758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11709,7 +11779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11730,73 +11800,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
     </row>
   </sheetData>
@@ -11805,7 +11875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A01C7-0A25-459C-A739-C90077084666}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -11813,16 +11883,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11846,7 +11916,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11870,7 +11940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8D1424-7946-4BE5-99E5-DF2D4339CAC6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -11878,14 +11948,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.25</v>
       </c>
